--- a/FACModel/PLNGS_Power.xlsx
+++ b/FACModel/PLNGS_Power.xlsx
@@ -418,7 +418,7 @@
         <v>35155</v>
       </c>
       <c r="B4">
-        <v>1.011831139845917</v>
+        <v>0.9965793528505477</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -426,7 +426,7 @@
         <v>35185</v>
       </c>
       <c r="B5">
-        <v>1.075611547668067</v>
+        <v>0.9964873949579883</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -434,7 +434,7 @@
         <v>35216</v>
       </c>
       <c r="B6">
-        <v>1.122910578418773</v>
+        <v>0.997342960288812</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -442,7 +442,7 @@
         <v>35246</v>
       </c>
       <c r="B7">
-        <v>1.152851324051021</v>
+        <v>0.9979183673469387</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -450,7 +450,7 @@
         <v>35277</v>
       </c>
       <c r="B8">
-        <v>1.16263258</v>
+        <v>0.9991652173913045</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -458,7 +458,7 @@
         <v>35308</v>
       </c>
       <c r="B9">
-        <v>1.16263258</v>
+        <v>0.9991652173913045</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -466,7 +466,7 @@
         <v>35338</v>
       </c>
       <c r="B10">
-        <v>1.171173958338028</v>
+        <v>0.5072535211267616</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -474,7 +474,7 @@
         <v>35369</v>
       </c>
       <c r="B11">
-        <v>1.171173958338028</v>
+        <v>0.5072535211267616</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -482,7 +482,7 @@
         <v>35399</v>
       </c>
       <c r="B12">
-        <v>1.18325128365625</v>
+        <v>0.8708958333333322</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -490,7 +490,7 @@
         <v>35430</v>
       </c>
       <c r="B13">
-        <v>1.219024045751278</v>
+        <v>0.9943321976149965</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -498,7 +498,7 @@
         <v>35461</v>
       </c>
       <c r="B14">
-        <v>0.6510266695165746</v>
+        <v>0.5103176795580103</v>
       </c>
     </row>
     <row r="15" spans="1:2">

--- a/FACModel/PLNGS_Power.xlsx
+++ b/FACModel/PLNGS_Power.xlsx
@@ -3714,7 +3714,7 @@
         <v>35479</v>
       </c>
       <c r="B416">
-        <v>0.001</v>
+        <v>0.001000000000000001</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3722,7 +3722,7 @@
         <v>35480</v>
       </c>
       <c r="B417">
-        <v>0.001</v>
+        <v>0.001000000000000001</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -8610,7 +8610,7 @@
         <v>36091</v>
       </c>
       <c r="B1028">
-        <v>0.9275652173913045</v>
+        <v>0.9275416666666668</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
@@ -8626,7 +8626,7 @@
         <v>36093</v>
       </c>
       <c r="B1030">
-        <v>0.9796111111111112</v>
+        <v>0.9797500000000002</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
@@ -8634,7 +8634,7 @@
         <v>36094</v>
       </c>
       <c r="B1031">
-        <v>0.9796111111111112</v>
+        <v>0.9532916666666669</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
@@ -8642,7 +8642,7 @@
         <v>36095</v>
       </c>
       <c r="B1032">
-        <v>0.9796111111111112</v>
+        <v>0.9623333333333339</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
@@ -8650,7 +8650,7 @@
         <v>36096</v>
       </c>
       <c r="B1033">
-        <v>0.9796111111111112</v>
+        <v>0.9780833333333332</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
@@ -8658,7 +8658,7 @@
         <v>36097</v>
       </c>
       <c r="B1034">
-        <v>0.9796111111111112</v>
+        <v>0.9410833333333334</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
@@ -8666,7 +8666,7 @@
         <v>36098</v>
       </c>
       <c r="B1035">
-        <v>0.9796111111111112</v>
+        <v>0.9480416666666667</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
@@ -8674,7 +8674,7 @@
         <v>36099</v>
       </c>
       <c r="B1036">
-        <v>0.9796111111111112</v>
+        <v>0.9779166666666668</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
@@ -8682,7 +8682,7 @@
         <v>36100</v>
       </c>
       <c r="B1037">
-        <v>0.9796111111111112</v>
+        <v>0.9800000000000003</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
@@ -8690,7 +8690,7 @@
         <v>36101</v>
       </c>
       <c r="B1038">
-        <v>0.9796111111111112</v>
+        <v>0.9800000000000003</v>
       </c>
     </row>
     <row r="1039" spans="1:2">
@@ -8698,7 +8698,7 @@
         <v>36102</v>
       </c>
       <c r="B1039">
-        <v>0.9796111111111112</v>
+        <v>0.9796666666666667</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
@@ -8706,7 +8706,7 @@
         <v>36103</v>
       </c>
       <c r="B1040">
-        <v>0.9796111111111112</v>
+        <v>0.9689583333333331</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
@@ -8714,7 +8714,7 @@
         <v>36104</v>
       </c>
       <c r="B1041">
-        <v>0.9796111111111112</v>
+        <v>0.9644166666666668</v>
       </c>
     </row>
     <row r="1042" spans="1:2">
@@ -8722,7 +8722,7 @@
         <v>36105</v>
       </c>
       <c r="B1042">
-        <v>0.9796111111111112</v>
+        <v>0.9745833333333337</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
@@ -8730,7 +8730,7 @@
         <v>36106</v>
       </c>
       <c r="B1043">
-        <v>0.9796111111111112</v>
+        <v>0.9747916666666669</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
@@ -8738,7 +8738,7 @@
         <v>36107</v>
       </c>
       <c r="B1044">
-        <v>0.9796111111111112</v>
+        <v>0.9708749999999998</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
@@ -8746,7 +8746,7 @@
         <v>36108</v>
       </c>
       <c r="B1045">
-        <v>0.9796111111111112</v>
+        <v>0.9774583333333337</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
@@ -8754,7 +8754,7 @@
         <v>36109</v>
       </c>
       <c r="B1046">
-        <v>0.9796111111111112</v>
+        <v>0.9810000000000004</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
@@ -8762,7 +8762,7 @@
         <v>36110</v>
       </c>
       <c r="B1047">
-        <v>0.9796111111111112</v>
+        <v>0.9795416666666671</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
@@ -8770,7 +8770,7 @@
         <v>36111</v>
       </c>
       <c r="B1048">
-        <v>0.9796111111111112</v>
+        <v>0.9709999999999998</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
@@ -8778,7 +8778,7 @@
         <v>36112</v>
       </c>
       <c r="B1049">
-        <v>0.9796111111111112</v>
+        <v>0.9710833333333336</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
@@ -8786,7 +8786,7 @@
         <v>36113</v>
       </c>
       <c r="B1050">
-        <v>0.9796111111111112</v>
+        <v>0.9801250000000002</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
@@ -8794,7 +8794,7 @@
         <v>36114</v>
       </c>
       <c r="B1051">
-        <v>0.9796111111111112</v>
+        <v>0.9801250000000005</v>
       </c>
     </row>
     <row r="1052" spans="1:2">
@@ -8802,7 +8802,7 @@
         <v>36115</v>
       </c>
       <c r="B1052">
-        <v>0.9796111111111112</v>
+        <v>0.9772916666666669</v>
       </c>
     </row>
     <row r="1053" spans="1:2">
@@ -8810,7 +8810,7 @@
         <v>36116</v>
       </c>
       <c r="B1053">
-        <v>0.9796111111111112</v>
+        <v>0.9756250000000001</v>
       </c>
     </row>
     <row r="1054" spans="1:2">
@@ -8818,7 +8818,7 @@
         <v>36117</v>
       </c>
       <c r="B1054">
-        <v>0.9796111111111112</v>
+        <v>0.9780000000000003</v>
       </c>
     </row>
     <row r="1055" spans="1:2">
@@ -8826,7 +8826,7 @@
         <v>36118</v>
       </c>
       <c r="B1055">
-        <v>0.9796111111111112</v>
+        <v>0.9792500000000003</v>
       </c>
     </row>
     <row r="1056" spans="1:2">
@@ -8834,7 +8834,7 @@
         <v>36119</v>
       </c>
       <c r="B1056">
-        <v>0.9796111111111112</v>
+        <v>0.9712500000000003</v>
       </c>
     </row>
     <row r="1057" spans="1:2">
@@ -8842,7 +8842,7 @@
         <v>36120</v>
       </c>
       <c r="B1057">
-        <v>0.9796111111111112</v>
+        <v>0.9827499999999997</v>
       </c>
     </row>
     <row r="1058" spans="1:2">
@@ -8850,7 +8850,7 @@
         <v>36121</v>
       </c>
       <c r="B1058">
-        <v>0.9796111111111112</v>
+        <v>0.984958333333333</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
@@ -8858,7 +8858,7 @@
         <v>36122</v>
       </c>
       <c r="B1059">
-        <v>0.9796111111111112</v>
+        <v>0.9744583333333333</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
@@ -8866,7 +8866,7 @@
         <v>36123</v>
       </c>
       <c r="B1060">
-        <v>0.9796111111111112</v>
+        <v>0.9719166666666667</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
@@ -8874,7 +8874,7 @@
         <v>36124</v>
       </c>
       <c r="B1061">
-        <v>0.9796111111111112</v>
+        <v>0.9865</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
@@ -8882,7 +8882,7 @@
         <v>36125</v>
       </c>
       <c r="B1062">
-        <v>0.9796111111111112</v>
+        <v>0.9918333333333336</v>
       </c>
     </row>
     <row r="1063" spans="1:2">
@@ -8890,7 +8890,7 @@
         <v>36126</v>
       </c>
       <c r="B1063">
-        <v>0.9796111111111112</v>
+        <v>0.9827916666666666</v>
       </c>
     </row>
     <row r="1064" spans="1:2">
@@ -8898,7 +8898,7 @@
         <v>36127</v>
       </c>
       <c r="B1064">
-        <v>0.9796111111111112</v>
+        <v>0.9945833333333334</v>
       </c>
     </row>
     <row r="1065" spans="1:2">
@@ -8906,7 +8906,7 @@
         <v>36128</v>
       </c>
       <c r="B1065">
-        <v>0.9796111111111112</v>
+        <v>0.9890416666666667</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
@@ -8914,7 +8914,7 @@
         <v>36129</v>
       </c>
       <c r="B1066">
-        <v>0.9796111111111112</v>
+        <v>0.9914166666666668</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
@@ -8922,7 +8922,7 @@
         <v>36130</v>
       </c>
       <c r="B1067">
-        <v>0.9796111111111112</v>
+        <v>0.9955000000000003</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
@@ -8930,7 +8930,7 @@
         <v>36131</v>
       </c>
       <c r="B1068">
-        <v>0.9796111111111112</v>
+        <v>0.9956521739130433</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
@@ -8938,7 +8938,7 @@
         <v>36132</v>
       </c>
       <c r="B1069">
-        <v>0.9796111111111112</v>
+        <v>0.9830833333333331</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
@@ -8946,7 +8946,7 @@
         <v>36133</v>
       </c>
       <c r="B1070">
-        <v>0.9796111111111112</v>
+        <v>0.9934583333333332</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
@@ -8954,7 +8954,7 @@
         <v>36134</v>
       </c>
       <c r="B1071">
-        <v>0.9796111111111112</v>
+        <v>0.995833333333333</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
@@ -8962,7 +8962,7 @@
         <v>36135</v>
       </c>
       <c r="B1072">
-        <v>0.9796111111111112</v>
+        <v>0.9924583333333331</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
@@ -8970,7 +8970,7 @@
         <v>36136</v>
       </c>
       <c r="B1073">
-        <v>0.9796111111111112</v>
+        <v>0.9855416666666666</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
@@ -8978,7 +8978,7 @@
         <v>36137</v>
       </c>
       <c r="B1074">
-        <v>0.9796111111111112</v>
+        <v>0.9872916666666668</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
@@ -8986,7 +8986,7 @@
         <v>36138</v>
       </c>
       <c r="B1075">
-        <v>0.9796111111111112</v>
+        <v>0.996166666666667</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
@@ -8994,7 +8994,7 @@
         <v>36139</v>
       </c>
       <c r="B1076">
-        <v>0.9796111111111112</v>
+        <v>0.996166666666667</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
@@ -9002,7 +9002,7 @@
         <v>36140</v>
       </c>
       <c r="B1077">
-        <v>0.9796111111111112</v>
+        <v>0.996166666666667</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
@@ -9010,7 +9010,7 @@
         <v>36141</v>
       </c>
       <c r="B1078">
-        <v>0.9796111111111112</v>
+        <v>0.996166666666667</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
@@ -9018,7 +9018,7 @@
         <v>36142</v>
       </c>
       <c r="B1079">
-        <v>0.9796111111111112</v>
+        <v>0.996166666666667</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
@@ -9026,7 +9026,7 @@
         <v>36143</v>
       </c>
       <c r="B1080">
-        <v>0.9796111111111112</v>
+        <v>0.9979166666666671</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
@@ -9034,7 +9034,7 @@
         <v>36144</v>
       </c>
       <c r="B1081">
-        <v>0.9796111111111112</v>
+        <v>0.9893749999999998</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
@@ -9042,7 +9042,7 @@
         <v>36145</v>
       </c>
       <c r="B1082">
-        <v>0.9796111111111112</v>
+        <v>0.9984583333333336</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
@@ -9050,7 +9050,7 @@
         <v>36146</v>
       </c>
       <c r="B1083">
-        <v>0.9796111111111112</v>
+        <v>0.9909166666666666</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
@@ -9058,7 +9058,7 @@
         <v>36147</v>
       </c>
       <c r="B1084">
-        <v>0.9796111111111112</v>
+        <v>0.9937500000000002</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
@@ -9066,7 +9066,7 @@
         <v>36148</v>
       </c>
       <c r="B1085">
-        <v>0.9796111111111112</v>
+        <v>1.000541666666666</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
@@ -9074,7 +9074,7 @@
         <v>36149</v>
       </c>
       <c r="B1086">
-        <v>0.9796111111111112</v>
+        <v>0.9831249999999999</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
@@ -9082,7 +9082,7 @@
         <v>36150</v>
       </c>
       <c r="B1087">
-        <v>0.9796111111111112</v>
+        <v>0.9950833333333335</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
@@ -9090,7 +9090,7 @@
         <v>36151</v>
       </c>
       <c r="B1088">
-        <v>0.9796111111111112</v>
+        <v>0.9947916666666666</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
@@ -9098,7 +9098,7 @@
         <v>36152</v>
       </c>
       <c r="B1089">
-        <v>0.9796111111111112</v>
+        <v>0.9954166666666665</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
@@ -9106,7 +9106,7 @@
         <v>36153</v>
       </c>
       <c r="B1090">
-        <v>0.9796111111111112</v>
+        <v>0.9932500000000001</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
@@ -9114,7 +9114,7 @@
         <v>36154</v>
       </c>
       <c r="B1091">
-        <v>0.9796111111111112</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
@@ -9122,7 +9122,7 @@
         <v>36155</v>
       </c>
       <c r="B1092">
-        <v>0.9796111111111112</v>
+        <v>0.9999583333333334</v>
       </c>
     </row>
     <row r="1093" spans="1:2">
@@ -9130,7 +9130,7 @@
         <v>36156</v>
       </c>
       <c r="B1093">
-        <v>0.9796111111111112</v>
+        <v>0.9999166666666666</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
@@ -9138,7 +9138,7 @@
         <v>36157</v>
       </c>
       <c r="B1094">
-        <v>0.9796111111111112</v>
+        <v>0.9935833333333336</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
@@ -9146,7 +9146,7 @@
         <v>36158</v>
       </c>
       <c r="B1095">
-        <v>0.9796111111111112</v>
+        <v>0.9938750000000002</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
@@ -9154,7 +9154,7 @@
         <v>36159</v>
       </c>
       <c r="B1096">
-        <v>0.9796111111111112</v>
+        <v>0.9980833333333332</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
@@ -9162,7 +9162,7 @@
         <v>36160</v>
       </c>
       <c r="B1097">
-        <v>0.9796111111111112</v>
+        <v>0.9884166666666667</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
@@ -9170,7 +9170,7 @@
         <v>36161</v>
       </c>
       <c r="B1098">
-        <v>0.9796111111111112</v>
+        <v>1.000875</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
@@ -9178,7 +9178,7 @@
         <v>36162</v>
       </c>
       <c r="B1099">
-        <v>0.9796111111111112</v>
+        <v>1.000708333333334</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
@@ -9186,7 +9186,7 @@
         <v>36163</v>
       </c>
       <c r="B1100">
-        <v>0.9796111111111112</v>
+        <v>1.000583333333333</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
@@ -9194,7 +9194,7 @@
         <v>36164</v>
       </c>
       <c r="B1101">
-        <v>0.9796111111111112</v>
+        <v>0.9934999999999997</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
@@ -9202,7 +9202,7 @@
         <v>36165</v>
       </c>
       <c r="B1102">
-        <v>0.9796111111111112</v>
+        <v>0.9939166666666669</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
@@ -9210,7 +9210,7 @@
         <v>36166</v>
       </c>
       <c r="B1103">
-        <v>0.9796111111111112</v>
+        <v>1.000583333333333</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
@@ -9218,7 +9218,7 @@
         <v>36167</v>
       </c>
       <c r="B1104">
-        <v>0.9796111111111112</v>
+        <v>0.9896250000000001</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
@@ -9226,7 +9226,7 @@
         <v>36168</v>
       </c>
       <c r="B1105">
-        <v>0.9796111111111112</v>
+        <v>0.9984166666666668</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
@@ -9234,7 +9234,7 @@
         <v>36169</v>
       </c>
       <c r="B1106">
-        <v>0.9796111111111112</v>
+        <v>0.9960416666666668</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
@@ -9242,7 +9242,7 @@
         <v>36170</v>
       </c>
       <c r="B1107">
-        <v>0.9796111111111112</v>
+        <v>1.00075</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
@@ -9250,7 +9250,7 @@
         <v>36171</v>
       </c>
       <c r="B1108">
-        <v>0.9796111111111112</v>
+        <v>0.9773749999999999</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
@@ -9258,7 +9258,7 @@
         <v>36172</v>
       </c>
       <c r="B1109">
-        <v>0.9796111111111112</v>
+        <v>0.9398750000000001</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
@@ -9266,7 +9266,7 @@
         <v>36173</v>
       </c>
       <c r="B1110">
-        <v>0.9796111111111112</v>
+        <v>0.9401249999999995</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
@@ -9274,7 +9274,7 @@
         <v>36174</v>
       </c>
       <c r="B1111">
-        <v>0.9796111111111112</v>
+        <v>0.9420416666666669</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
@@ -9282,7 +9282,7 @@
         <v>36175</v>
       </c>
       <c r="B1112">
-        <v>0.9796111111111112</v>
+        <v>0.9727916666666664</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
@@ -9290,7 +9290,7 @@
         <v>36176</v>
       </c>
       <c r="B1113">
-        <v>0.9796111111111112</v>
+        <v>0.9592916666666668</v>
       </c>
     </row>
     <row r="1114" spans="1:2">
@@ -9298,7 +9298,7 @@
         <v>36177</v>
       </c>
       <c r="B1114">
-        <v>0.9796111111111112</v>
+        <v>0.9725000000000003</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
@@ -9306,7 +9306,7 @@
         <v>36178</v>
       </c>
       <c r="B1115">
-        <v>0.9796111111111112</v>
+        <v>0.9632916666666665</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
@@ -9314,7 +9314,7 @@
         <v>36179</v>
       </c>
       <c r="B1116">
-        <v>0.9796111111111112</v>
+        <v>0.9550416666666668</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
@@ -9322,7 +9322,7 @@
         <v>36180</v>
       </c>
       <c r="B1117">
-        <v>0.9796111111111112</v>
+        <v>0.9600000000000005</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
@@ -9330,7 +9330,7 @@
         <v>36181</v>
       </c>
       <c r="B1118">
-        <v>0.9796111111111112</v>
+        <v>0.9597826086956521</v>
       </c>
     </row>
     <row r="1119" spans="1:2">
@@ -9338,7 +9338,7 @@
         <v>36182</v>
       </c>
       <c r="B1119">
-        <v>0.9796111111111112</v>
+        <v>0.9635833333333333</v>
       </c>
     </row>
     <row r="1120" spans="1:2">
@@ -9346,7 +9346,7 @@
         <v>36183</v>
       </c>
       <c r="B1120">
-        <v>0.9796111111111112</v>
+        <v>0.9663749999999997</v>
       </c>
     </row>
     <row r="1121" spans="1:2">
@@ -9354,7 +9354,7 @@
         <v>36184</v>
       </c>
       <c r="B1121">
-        <v>0.9796111111111112</v>
+        <v>0.9720000000000004</v>
       </c>
     </row>
     <row r="1122" spans="1:2">
@@ -9362,7 +9362,7 @@
         <v>36185</v>
       </c>
       <c r="B1122">
-        <v>0.9796111111111112</v>
+        <v>0.9679583333333333</v>
       </c>
     </row>
     <row r="1123" spans="1:2">
@@ -9370,7 +9370,7 @@
         <v>36186</v>
       </c>
       <c r="B1123">
-        <v>0.9796111111111112</v>
+        <v>0.9670000000000002</v>
       </c>
     </row>
     <row r="1124" spans="1:2">
@@ -9378,7 +9378,7 @@
         <v>36187</v>
       </c>
       <c r="B1124">
-        <v>0.9796111111111112</v>
+        <v>0.9678749999999998</v>
       </c>
     </row>
     <row r="1125" spans="1:2">
@@ -9386,7 +9386,7 @@
         <v>36188</v>
       </c>
       <c r="B1125">
-        <v>0.9796111111111112</v>
+        <v>0.9752500000000003</v>
       </c>
     </row>
     <row r="1126" spans="1:2">
@@ -9394,7 +9394,7 @@
         <v>36189</v>
       </c>
       <c r="B1126">
-        <v>0.9796111111111112</v>
+        <v>0.9770000000000002</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
@@ -9402,7 +9402,7 @@
         <v>36190</v>
       </c>
       <c r="B1127">
-        <v>0.9796111111111112</v>
+        <v>0.9770000000000002</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
@@ -9410,7 +9410,7 @@
         <v>36191</v>
       </c>
       <c r="B1128">
-        <v>0.9796111111111112</v>
+        <v>0.9769583333333336</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
@@ -9418,7 +9418,7 @@
         <v>36192</v>
       </c>
       <c r="B1129">
-        <v>0.9796111111111112</v>
+        <v>0.9768750000000002</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
@@ -9426,7 +9426,7 @@
         <v>36193</v>
       </c>
       <c r="B1130">
-        <v>0.9796111111111112</v>
+        <v>0.9792500000000005</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
@@ -9434,7 +9434,7 @@
         <v>36194</v>
       </c>
       <c r="B1131">
-        <v>0.9796111111111112</v>
+        <v>0.9805000000000005</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
@@ -9442,7 +9442,7 @@
         <v>36195</v>
       </c>
       <c r="B1132">
-        <v>0.9796111111111112</v>
+        <v>0.9641250000000001</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
@@ -9450,7 +9450,7 @@
         <v>36196</v>
       </c>
       <c r="B1133">
-        <v>0.9796111111111112</v>
+        <v>0.9668333333333335</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
@@ -9458,7 +9458,7 @@
         <v>36197</v>
       </c>
       <c r="B1134">
-        <v>0.9796111111111112</v>
+        <v>0.9765416666666664</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
@@ -9466,7 +9466,7 @@
         <v>36198</v>
       </c>
       <c r="B1135">
-        <v>0.9796111111111112</v>
+        <v>0.9787500000000001</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
@@ -9474,7 +9474,7 @@
         <v>36199</v>
       </c>
       <c r="B1136">
-        <v>0.9796111111111112</v>
+        <v>0.9707916666666665</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
@@ -9482,7 +9482,7 @@
         <v>36200</v>
       </c>
       <c r="B1137">
-        <v>0.9796111111111112</v>
+        <v>0.9679166666666665</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
@@ -9490,7 +9490,7 @@
         <v>36201</v>
       </c>
       <c r="B1138">
-        <v>0.9796111111111112</v>
+        <v>0.9760833333333335</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
@@ -9498,7 +9498,7 @@
         <v>36202</v>
       </c>
       <c r="B1139">
-        <v>0.9796111111111112</v>
+        <v>0.9631249999999998</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
@@ -9506,7 +9506,7 @@
         <v>36203</v>
       </c>
       <c r="B1140">
-        <v>0.9796111111111112</v>
+        <v>0.9643333333333334</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
@@ -9514,7 +9514,7 @@
         <v>36204</v>
       </c>
       <c r="B1141">
-        <v>0.9796111111111112</v>
+        <v>0.9742500000000001</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
@@ -9522,7 +9522,7 @@
         <v>36205</v>
       </c>
       <c r="B1142">
-        <v>0.9796111111111112</v>
+        <v>0.9740416666666668</v>
       </c>
     </row>
     <row r="1143" spans="1:2">
@@ -9530,7 +9530,7 @@
         <v>36206</v>
       </c>
       <c r="B1143">
-        <v>0.9796111111111112</v>
+        <v>0.9683913043478259</v>
       </c>
     </row>
     <row r="1144" spans="1:2">
@@ -9538,7 +9538,7 @@
         <v>36207</v>
       </c>
       <c r="B1144">
-        <v>0.9796111111111112</v>
+        <v>0.9665416666666666</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
@@ -9546,7 +9546,7 @@
         <v>36208</v>
       </c>
       <c r="B1145">
-        <v>0.9796111111111112</v>
+        <v>0.9744166666666664</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
@@ -9554,7 +9554,7 @@
         <v>36209</v>
       </c>
       <c r="B1146">
-        <v>0.9796111111111112</v>
+        <v>0.9739166666666671</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
@@ -9562,7 +9562,7 @@
         <v>36210</v>
       </c>
       <c r="B1147">
-        <v>0.9796111111111112</v>
+        <v>0.9750416666666669</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
@@ -9570,7 +9570,7 @@
         <v>36211</v>
       </c>
       <c r="B1148">
-        <v>0.9796111111111112</v>
+        <v>0.9750000000000002</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
@@ -9578,7 +9578,7 @@
         <v>36212</v>
       </c>
       <c r="B1149">
-        <v>0.9796111111111112</v>
+        <v>0.968833333333333</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
@@ -9586,7 +9586,7 @@
         <v>36213</v>
       </c>
       <c r="B1150">
-        <v>0.9796111111111112</v>
+        <v>0.9624999999999999</v>
       </c>
     </row>
     <row r="1151" spans="1:2">
@@ -9594,7 +9594,7 @@
         <v>36214</v>
       </c>
       <c r="B1151">
-        <v>0.9796111111111112</v>
+        <v>0.9632500000000003</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
@@ -9602,7 +9602,7 @@
         <v>36215</v>
       </c>
       <c r="B1152">
-        <v>0.9796111111111112</v>
+        <v>0.9723750000000001</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
@@ -9610,7 +9610,7 @@
         <v>36216</v>
       </c>
       <c r="B1153">
-        <v>0.9796111111111112</v>
+        <v>0.9678749999999998</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
@@ -9618,7 +9618,7 @@
         <v>36217</v>
       </c>
       <c r="B1154">
-        <v>0.9796111111111112</v>
+        <v>0.9639166666666661</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
@@ -9626,7 +9626,7 @@
         <v>36218</v>
       </c>
       <c r="B1155">
-        <v>0.9796111111111112</v>
+        <v>0.9707500000000002</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
@@ -9634,7 +9634,7 @@
         <v>36219</v>
       </c>
       <c r="B1156">
-        <v>0.9796111111111112</v>
+        <v>0.9718750000000002</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
@@ -9642,7 +9642,7 @@
         <v>36220</v>
       </c>
       <c r="B1157">
-        <v>0.9796111111111112</v>
+        <v>0.9693749999999999</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
@@ -9650,7 +9650,7 @@
         <v>36221</v>
       </c>
       <c r="B1158">
-        <v>0.9796111111111112</v>
+        <v>0.9644583333333334</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
@@ -9658,7 +9658,7 @@
         <v>36222</v>
       </c>
       <c r="B1159">
-        <v>0.9796111111111112</v>
+        <v>0.9748333333333333</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
@@ -9666,7 +9666,7 @@
         <v>36223</v>
       </c>
       <c r="B1160">
-        <v>0.9796111111111112</v>
+        <v>0.9550416666666665</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
@@ -9674,7 +9674,7 @@
         <v>36224</v>
       </c>
       <c r="B1161">
-        <v>0.9796111111111112</v>
+        <v>0.9626666666666667</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
@@ -9682,7 +9682,7 @@
         <v>36225</v>
       </c>
       <c r="B1162">
-        <v>0.9796111111111112</v>
+        <v>0.9712500000000001</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
@@ -9690,7 +9690,7 @@
         <v>36226</v>
       </c>
       <c r="B1163">
-        <v>0.9796111111111112</v>
+        <v>0.9627916666666665</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
@@ -9698,7 +9698,7 @@
         <v>36227</v>
       </c>
       <c r="B1164">
-        <v>0.9796111111111112</v>
+        <v>0.9595833333333337</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
@@ -9706,7 +9706,7 @@
         <v>36228</v>
       </c>
       <c r="B1165">
-        <v>0.9796111111111112</v>
+        <v>0.9642083333333334</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
@@ -9714,7 +9714,7 @@
         <v>36229</v>
       </c>
       <c r="B1166">
-        <v>0.9796111111111112</v>
+        <v>0.9699166666666664</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
@@ -9722,7 +9722,7 @@
         <v>36230</v>
       </c>
       <c r="B1167">
-        <v>0.9796111111111112</v>
+        <v>0.9530833333333332</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
@@ -9730,7 +9730,7 @@
         <v>36231</v>
       </c>
       <c r="B1168">
-        <v>0.9796111111111112</v>
+        <v>0.9587499999999997</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
@@ -9738,7 +9738,7 @@
         <v>36232</v>
       </c>
       <c r="B1169">
-        <v>0.9796111111111112</v>
+        <v>0.9674166666666667</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
@@ -9746,7 +9746,7 @@
         <v>36233</v>
       </c>
       <c r="B1170">
-        <v>0.9796111111111112</v>
+        <v>0.9697083333333335</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
@@ -9754,7 +9754,7 @@
         <v>36234</v>
       </c>
       <c r="B1171">
-        <v>0.9796111111111112</v>
+        <v>0.9623125</v>
       </c>
     </row>
     <row r="1172" spans="1:2">
@@ -9762,7 +9762,7 @@
         <v>36235</v>
       </c>
       <c r="B1172">
-        <v>0.9796111111111112</v>
+        <v>0.9680833333333334</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
@@ -9770,7 +9770,7 @@
         <v>36236</v>
       </c>
       <c r="B1173">
-        <v>0.9796111111111112</v>
+        <v>0.9644782608695648</v>
       </c>
     </row>
     <row r="1174" spans="1:2">
@@ -9778,7 +9778,7 @@
         <v>36237</v>
       </c>
       <c r="B1174">
-        <v>0.9796111111111112</v>
+        <v>0.9706666666666668</v>
       </c>
     </row>
     <row r="1175" spans="1:2">
@@ -9786,7 +9786,7 @@
         <v>36238</v>
       </c>
       <c r="B1175">
-        <v>0.9796111111111112</v>
+        <v>0.965083333333333</v>
       </c>
     </row>
     <row r="1176" spans="1:2">
@@ -9794,7 +9794,7 @@
         <v>36239</v>
       </c>
       <c r="B1176">
-        <v>0.9796111111111112</v>
+        <v>0.9711249999999999</v>
       </c>
     </row>
     <row r="1177" spans="1:2">
@@ -9802,7 +9802,7 @@
         <v>36240</v>
       </c>
       <c r="B1177">
-        <v>0.9796111111111112</v>
+        <v>0.9710833333333334</v>
       </c>
     </row>
     <row r="1178" spans="1:2">
@@ -9810,7 +9810,7 @@
         <v>36241</v>
       </c>
       <c r="B1178">
-        <v>0.9796111111111112</v>
+        <v>0.9619166666666669</v>
       </c>
     </row>
     <row r="1179" spans="1:2">
@@ -9818,7 +9818,7 @@
         <v>36242</v>
       </c>
       <c r="B1179">
-        <v>0.9796111111111112</v>
+        <v>0.9641666666666667</v>
       </c>
     </row>
     <row r="1180" spans="1:2">
@@ -9826,7 +9826,7 @@
         <v>36243</v>
       </c>
       <c r="B1180">
-        <v>0.9796111111111112</v>
+        <v>0.971</v>
       </c>
     </row>
     <row r="1181" spans="1:2">
@@ -9834,7 +9834,7 @@
         <v>36244</v>
       </c>
       <c r="B1181">
-        <v>0.9796111111111112</v>
+        <v>0.9659166666666668</v>
       </c>
     </row>
     <row r="1182" spans="1:2">
@@ -9842,7 +9842,7 @@
         <v>36245</v>
       </c>
       <c r="B1182">
-        <v>0.9796111111111112</v>
+        <v>0.9654999999999997</v>
       </c>
     </row>
     <row r="1183" spans="1:2">
@@ -9850,7 +9850,7 @@
         <v>36246</v>
       </c>
       <c r="B1183">
-        <v>0.9796111111111112</v>
+        <v>0.9707499999999999</v>
       </c>
     </row>
     <row r="1184" spans="1:2">
@@ -9858,7 +9858,7 @@
         <v>36247</v>
       </c>
       <c r="B1184">
-        <v>0.9796111111111112</v>
+        <v>0.9621666666666667</v>
       </c>
     </row>
     <row r="1185" spans="1:2">
@@ -9866,7 +9866,7 @@
         <v>36248</v>
       </c>
       <c r="B1185">
-        <v>0.9796111111111112</v>
+        <v>0.9585833333333333</v>
       </c>
     </row>
     <row r="1186" spans="1:2">
@@ -9874,7 +9874,7 @@
         <v>36249</v>
       </c>
       <c r="B1186">
-        <v>0.9796111111111112</v>
+        <v>0.9629999999999996</v>
       </c>
     </row>
     <row r="1187" spans="1:2">
@@ -9882,7 +9882,7 @@
         <v>36250</v>
       </c>
       <c r="B1187">
-        <v>0.9796111111111112</v>
+        <v>0.9624166666666666</v>
       </c>
     </row>
     <row r="1188" spans="1:2">
@@ -9890,7 +9890,7 @@
         <v>36251</v>
       </c>
       <c r="B1188">
-        <v>0.9796111111111112</v>
+        <v>0.9592083333333333</v>
       </c>
     </row>
     <row r="1189" spans="1:2">
@@ -9898,7 +9898,7 @@
         <v>36252</v>
       </c>
       <c r="B1189">
-        <v>0.9796111111111112</v>
+        <v>0.9644583333333334</v>
       </c>
     </row>
     <row r="1190" spans="1:2">
@@ -9906,7 +9906,7 @@
         <v>36253</v>
       </c>
       <c r="B1190">
-        <v>0.9796111111111112</v>
+        <v>0.9653333333333335</v>
       </c>
     </row>
     <row r="1191" spans="1:2">
@@ -9914,7 +9914,7 @@
         <v>36254</v>
       </c>
       <c r="B1191">
-        <v>0.9796111111111112</v>
+        <v>0.9659565217391305</v>
       </c>
     </row>
     <row r="1192" spans="1:2">
@@ -9922,7 +9922,7 @@
         <v>36255</v>
       </c>
       <c r="B1192">
-        <v>0.9796111111111112</v>
+        <v>0.9601666666666667</v>
       </c>
     </row>
     <row r="1193" spans="1:2">
@@ -9930,7 +9930,7 @@
         <v>36256</v>
       </c>
       <c r="B1193">
-        <v>0.9796111111111112</v>
+        <v>0.9606666666666667</v>
       </c>
     </row>
     <row r="1194" spans="1:2">
@@ -9938,7 +9938,7 @@
         <v>36257</v>
       </c>
       <c r="B1194">
-        <v>0.9796111111111112</v>
+        <v>0.9669166666666665</v>
       </c>
     </row>
     <row r="1195" spans="1:2">
@@ -9946,7 +9946,7 @@
         <v>36258</v>
       </c>
       <c r="B1195">
-        <v>0.9796111111111112</v>
+        <v>0.9571666666666666</v>
       </c>
     </row>
     <row r="1196" spans="1:2">
@@ -9954,7 +9954,7 @@
         <v>36259</v>
       </c>
       <c r="B1196">
-        <v>0.9796111111111112</v>
+        <v>0.9585263157894739</v>
       </c>
     </row>
     <row r="1197" spans="1:2">
@@ -9962,7 +9962,7 @@
         <v>36260</v>
       </c>
       <c r="B1197">
-        <v>0.9796111111111112</v>
+        <v>0.9634999999999999</v>
       </c>
     </row>
     <row r="1198" spans="1:2">
@@ -9970,7 +9970,7 @@
         <v>36261</v>
       </c>
       <c r="B1198">
-        <v>0.9796111111111112</v>
+        <v>0.9689583333333333</v>
       </c>
     </row>
     <row r="1199" spans="1:2">
@@ -9978,7 +9978,7 @@
         <v>36262</v>
       </c>
       <c r="B1199">
-        <v>0.9796111111111112</v>
+        <v>0.9658333333333337</v>
       </c>
     </row>
     <row r="1200" spans="1:2">
@@ -9986,7 +9986,7 @@
         <v>36263</v>
       </c>
       <c r="B1200">
-        <v>0.9796111111111112</v>
+        <v>0.9637083333333335</v>
       </c>
     </row>
     <row r="1201" spans="1:2">
@@ -9994,7 +9994,7 @@
         <v>36264</v>
       </c>
       <c r="B1201">
-        <v>0.9796111111111112</v>
+        <v>0.9691249999999999</v>
       </c>
     </row>
     <row r="1202" spans="1:2">
@@ -10002,7 +10002,7 @@
         <v>36265</v>
       </c>
       <c r="B1202">
-        <v>0.9796111111111112</v>
+        <v>0.9626666666666667</v>
       </c>
     </row>
     <row r="1203" spans="1:2">
@@ -10010,7 +10010,7 @@
         <v>36266</v>
       </c>
       <c r="B1203">
-        <v>0.9796111111111112</v>
+        <v>0.9660833333333335</v>
       </c>
     </row>
     <row r="1204" spans="1:2">
@@ -10018,7 +10018,7 @@
         <v>36267</v>
       </c>
       <c r="B1204">
-        <v>0.9796111111111112</v>
+        <v>0.9717500000000001</v>
       </c>
     </row>
     <row r="1205" spans="1:2">
@@ -10026,7 +10026,7 @@
         <v>36268</v>
       </c>
       <c r="B1205">
-        <v>0.9796111111111112</v>
+        <v>0.9697083333333336</v>
       </c>
     </row>
     <row r="1206" spans="1:2">
@@ -10034,7 +10034,7 @@
         <v>36269</v>
       </c>
       <c r="B1206">
-        <v>0.9796111111111112</v>
+        <v>0.9660833333333332</v>
       </c>
     </row>
     <row r="1207" spans="1:2">
@@ -10042,7 +10042,7 @@
         <v>36270</v>
       </c>
       <c r="B1207">
-        <v>0.9796111111111112</v>
+        <v>0.9669583333333335</v>
       </c>
     </row>
     <row r="1208" spans="1:2">
@@ -10050,7 +10050,7 @@
         <v>36271</v>
       </c>
       <c r="B1208">
-        <v>0.9796111111111112</v>
+        <v>0.9700833333333335</v>
       </c>
     </row>
     <row r="1209" spans="1:2">
@@ -10058,7 +10058,7 @@
         <v>36272</v>
       </c>
       <c r="B1209">
-        <v>0.9796111111111112</v>
+        <v>0.9698333333333333</v>
       </c>
     </row>
     <row r="1210" spans="1:2">
@@ -10066,7 +10066,7 @@
         <v>36273</v>
       </c>
       <c r="B1210">
-        <v>0.9796111111111112</v>
+        <v>0.9671764705882353</v>
       </c>
     </row>
     <row r="1211" spans="1:2">
@@ -10074,7 +10074,7 @@
         <v>36274</v>
       </c>
       <c r="B1211">
-        <v>0.9796111111111112</v>
+        <v>0.9671764705882353</v>
       </c>
     </row>
     <row r="1212" spans="1:2">
@@ -10082,7 +10082,7 @@
         <v>36275</v>
       </c>
       <c r="B1212">
-        <v>0.9796111111111112</v>
+        <v>0.97575</v>
       </c>
     </row>
     <row r="1213" spans="1:2">
@@ -10090,7 +10090,7 @@
         <v>36276</v>
       </c>
       <c r="B1213">
-        <v>0.9796111111111112</v>
+        <v>0.9684999999999997</v>
       </c>
     </row>
     <row r="1214" spans="1:2">
@@ -10098,7 +10098,7 @@
         <v>36277</v>
       </c>
       <c r="B1214">
-        <v>0.9796111111111112</v>
+        <v>0.9662083333333332</v>
       </c>
     </row>
     <row r="1215" spans="1:2">
@@ -10106,7 +10106,7 @@
         <v>36278</v>
       </c>
       <c r="B1215">
-        <v>0.9796111111111112</v>
+        <v>0.9718333333333332</v>
       </c>
     </row>
     <row r="1216" spans="1:2">
@@ -10114,7 +10114,7 @@
         <v>36279</v>
       </c>
       <c r="B1216">
-        <v>0.9796111111111112</v>
+        <v>0.9603333333333328</v>
       </c>
     </row>
     <row r="1217" spans="1:2">
@@ -10122,7 +10122,7 @@
         <v>36280</v>
       </c>
       <c r="B1217">
-        <v>0.9796111111111112</v>
+        <v>0.9669583333333335</v>
       </c>
     </row>
     <row r="1218" spans="1:2">
@@ -10130,7 +10130,7 @@
         <v>36281</v>
       </c>
       <c r="B1218">
-        <v>0.9796111111111112</v>
+        <v>0.9725000000000003</v>
       </c>
     </row>
     <row r="1219" spans="1:2">
@@ -10138,7 +10138,7 @@
         <v>36282</v>
       </c>
       <c r="B1219">
-        <v>0.9796111111111112</v>
+        <v>0.9713750000000001</v>
       </c>
     </row>
     <row r="1220" spans="1:2">
@@ -10146,7 +10146,7 @@
         <v>36283</v>
       </c>
       <c r="B1220">
-        <v>0.9796111111111112</v>
+        <v>0.9633749999999998</v>
       </c>
     </row>
     <row r="1221" spans="1:2">
@@ -10154,7 +10154,7 @@
         <v>36284</v>
       </c>
       <c r="B1221">
-        <v>0.9796111111111112</v>
+        <v>0.9624999999999998</v>
       </c>
     </row>
     <row r="1222" spans="1:2">
@@ -10162,7 +10162,7 @@
         <v>36285</v>
       </c>
       <c r="B1222">
-        <v>0.9796111111111112</v>
+        <v>0.9628749999999999</v>
       </c>
     </row>
     <row r="1223" spans="1:2">
@@ -10170,7 +10170,7 @@
         <v>36286</v>
       </c>
       <c r="B1223">
-        <v>0.9796111111111112</v>
+        <v>0.9664285714285715</v>
       </c>
     </row>
     <row r="1224" spans="1:2">
@@ -10178,7 +10178,7 @@
         <v>36287</v>
       </c>
       <c r="B1224">
-        <v>0.9796111111111112</v>
+        <v>0.9595416666666666</v>
       </c>
     </row>
     <row r="1225" spans="1:2">
@@ -10186,7 +10186,7 @@
         <v>36288</v>
       </c>
       <c r="B1225">
-        <v>0.9796111111111112</v>
+        <v>0.5514583333333335</v>
       </c>
     </row>
     <row r="1226" spans="1:2">
@@ -10194,7 +10194,7 @@
         <v>36289</v>
       </c>
       <c r="B1226">
-        <v>0.9796111111111112</v>
+        <v>0.01216666666666667</v>
       </c>
     </row>
     <row r="1227" spans="1:2">
@@ -10202,7 +10202,7 @@
         <v>36290</v>
       </c>
       <c r="B1227">
-        <v>0.9796111111111112</v>
+        <v>0.008916666666666672</v>
       </c>
     </row>
     <row r="1228" spans="1:2">
@@ -10210,7 +10210,7 @@
         <v>36291</v>
       </c>
       <c r="B1228">
-        <v>0.9796111111111112</v>
+        <v>0.007083333333333337</v>
       </c>
     </row>
     <row r="1229" spans="1:2">
@@ -10218,7 +10218,7 @@
         <v>36292</v>
       </c>
       <c r="B1229">
-        <v>0.9796111111111112</v>
+        <v>0.005791666666666668</v>
       </c>
     </row>
     <row r="1230" spans="1:2">
@@ -10226,7 +10226,7 @@
         <v>36293</v>
       </c>
       <c r="B1230">
-        <v>0.9796111111111112</v>
+        <v>0.005000000000000002</v>
       </c>
     </row>
     <row r="1231" spans="1:2">
@@ -10234,7 +10234,7 @@
         <v>36294</v>
       </c>
       <c r="B1231">
-        <v>0.9796111111111112</v>
+        <v>0.004208333333333336</v>
       </c>
     </row>
     <row r="1232" spans="1:2">
@@ -10242,7 +10242,7 @@
         <v>36295</v>
       </c>
       <c r="B1232">
-        <v>0.9796111111111112</v>
+        <v>0.004000000000000003</v>
       </c>
     </row>
     <row r="1233" spans="1:2">
@@ -10250,7 +10250,7 @@
         <v>36296</v>
       </c>
       <c r="B1233">
-        <v>0.9796111111111112</v>
+        <v>0.003375000000000002</v>
       </c>
     </row>
     <row r="1234" spans="1:2">
@@ -10258,7 +10258,7 @@
         <v>36297</v>
       </c>
       <c r="B1234">
-        <v>0.9796111111111112</v>
+        <v>0.003000000000000001</v>
       </c>
     </row>
     <row r="1235" spans="1:2">
@@ -10266,7 +10266,7 @@
         <v>36298</v>
       </c>
       <c r="B1235">
-        <v>0.9796111111111112</v>
+        <v>0.003000000000000001</v>
       </c>
     </row>
     <row r="1236" spans="1:2">
@@ -10274,7 +10274,7 @@
         <v>36299</v>
       </c>
       <c r="B1236">
-        <v>0.9796111111111112</v>
+        <v>0.003000000000000001</v>
       </c>
     </row>
     <row r="1237" spans="1:2">
@@ -10282,7 +10282,7 @@
         <v>36300</v>
       </c>
       <c r="B1237">
-        <v>0.9796111111111112</v>
+        <v>0.002625000000000001</v>
       </c>
     </row>
     <row r="1238" spans="1:2">
@@ -10290,7 +10290,7 @@
         <v>36301</v>
       </c>
       <c r="B1238">
-        <v>0.9796111111111112</v>
+        <v>0.002000000000000001</v>
       </c>
     </row>
     <row r="1239" spans="1:2">
@@ -10298,7 +10298,7 @@
         <v>36302</v>
       </c>
       <c r="B1239">
-        <v>0.9796111111111112</v>
+        <v>0.002000000000000001</v>
       </c>
     </row>
     <row r="1240" spans="1:2">
@@ -10306,7 +10306,7 @@
         <v>36303</v>
       </c>
       <c r="B1240">
-        <v>0.9796111111111112</v>
+        <v>0.002000000000000001</v>
       </c>
     </row>
     <row r="1241" spans="1:2">
@@ -10314,7 +10314,7 @@
         <v>36304</v>
       </c>
       <c r="B1241">
-        <v>0.9796111111111112</v>
+        <v>0.002000000000000001</v>
       </c>
     </row>
     <row r="1242" spans="1:2">
@@ -10322,7 +10322,7 @@
         <v>36305</v>
       </c>
       <c r="B1242">
-        <v>0.9796111111111112</v>
+        <v>0.002000000000000001</v>
       </c>
     </row>
     <row r="1243" spans="1:2">
@@ -10330,7 +10330,7 @@
         <v>36306</v>
       </c>
       <c r="B1243">
-        <v>0.9796111111111112</v>
+        <v>0.002000000000000001</v>
       </c>
     </row>
     <row r="1244" spans="1:2">
@@ -10338,7 +10338,7 @@
         <v>36307</v>
       </c>
       <c r="B1244">
-        <v>0.9796111111111112</v>
+        <v>0.002000000000000001</v>
       </c>
     </row>
     <row r="1245" spans="1:2">
@@ -10346,7 +10346,7 @@
         <v>36308</v>
       </c>
       <c r="B1245">
-        <v>0.9796111111111112</v>
+        <v>0.002000000000000001</v>
       </c>
     </row>
     <row r="1246" spans="1:2">
@@ -10354,7 +10354,7 @@
         <v>36309</v>
       </c>
       <c r="B1246">
-        <v>0.9796111111111112</v>
+        <v>0.002000000000000001</v>
       </c>
     </row>
     <row r="1247" spans="1:2">
@@ -10362,7 +10362,7 @@
         <v>36310</v>
       </c>
       <c r="B1247">
-        <v>0.9796111111111112</v>
+        <v>0.002000000000000001</v>
       </c>
     </row>
     <row r="1248" spans="1:2">
@@ -10370,7 +10370,7 @@
         <v>36311</v>
       </c>
       <c r="B1248">
-        <v>0.9796111111111112</v>
+        <v>0.002000000000000001</v>
       </c>
     </row>
     <row r="1249" spans="1:2">
@@ -10378,7 +10378,7 @@
         <v>36312</v>
       </c>
       <c r="B1249">
-        <v>0.9796111111111112</v>
+        <v>0.002000000000000001</v>
       </c>
     </row>
     <row r="1250" spans="1:2">
@@ -10386,7 +10386,7 @@
         <v>36313</v>
       </c>
       <c r="B1250">
-        <v>0.9796111111111112</v>
+        <v>0.001958333333333334</v>
       </c>
     </row>
     <row r="1251" spans="1:2">
@@ -10394,7 +10394,7 @@
         <v>36314</v>
       </c>
       <c r="B1251">
-        <v>0.9796111111111112</v>
+        <v>0.001708333333333334</v>
       </c>
     </row>
     <row r="1252" spans="1:2">
@@ -10402,7 +10402,7 @@
         <v>36315</v>
       </c>
       <c r="B1252">
-        <v>0.001</v>
+        <v>0.001333333333333334</v>
       </c>
     </row>
     <row r="1253" spans="1:2">
@@ -10594,7 +10594,7 @@
         <v>36339</v>
       </c>
       <c r="B1276">
-        <v>0.001</v>
+        <v>0.001000000000000001</v>
       </c>
     </row>
     <row r="1277" spans="1:2">
@@ -10602,7 +10602,7 @@
         <v>36340</v>
       </c>
       <c r="B1277">
-        <v>0.001</v>
+        <v>0.001000000000000001</v>
       </c>
     </row>
     <row r="1278" spans="1:2">
@@ -10610,7 +10610,7 @@
         <v>36341</v>
       </c>
       <c r="B1278">
-        <v>0.001</v>
+        <v>0.001000000000000001</v>
       </c>
     </row>
     <row r="1279" spans="1:2">
@@ -10618,7 +10618,7 @@
         <v>36342</v>
       </c>
       <c r="B1279">
-        <v>0.001</v>
+        <v>0.001000000000000001</v>
       </c>
     </row>
     <row r="1280" spans="1:2">
@@ -10626,7 +10626,7 @@
         <v>36343</v>
       </c>
       <c r="B1280">
-        <v>0.001</v>
+        <v>0.001000000000000001</v>
       </c>
     </row>
     <row r="1281" spans="1:2">
@@ -10634,7 +10634,7 @@
         <v>36344</v>
       </c>
       <c r="B1281">
-        <v>0.001</v>
+        <v>0.001000000000000001</v>
       </c>
     </row>
     <row r="1282" spans="1:2">
@@ -10642,7 +10642,7 @@
         <v>36345</v>
       </c>
       <c r="B1282">
-        <v>0.001</v>
+        <v>0.001000000000000001</v>
       </c>
     </row>
     <row r="1283" spans="1:2">
@@ -10650,7 +10650,7 @@
         <v>36346</v>
       </c>
       <c r="B1283">
-        <v>0.001</v>
+        <v>0.001000000000000001</v>
       </c>
     </row>
     <row r="1284" spans="1:2">
@@ -10738,7 +10738,7 @@
         <v>36357</v>
       </c>
       <c r="B1294">
-        <v>0.001</v>
+        <v>0.001000000000000001</v>
       </c>
     </row>
     <row r="1295" spans="1:2">
@@ -10746,7 +10746,7 @@
         <v>36358</v>
       </c>
       <c r="B1295">
-        <v>0.001</v>
+        <v>0.001000000000000001</v>
       </c>
     </row>
     <row r="1296" spans="1:2">
@@ -10810,7 +10810,7 @@
         <v>36366</v>
       </c>
       <c r="B1303">
-        <v>0.001</v>
+        <v>0.001000000000000001</v>
       </c>
     </row>
     <row r="1304" spans="1:2">
@@ -10818,7 +10818,7 @@
         <v>36367</v>
       </c>
       <c r="B1304">
-        <v>0.001</v>
+        <v>0.001000000000000001</v>
       </c>
     </row>
     <row r="1305" spans="1:2">
@@ -10826,7 +10826,7 @@
         <v>36368</v>
       </c>
       <c r="B1305">
-        <v>0.001</v>
+        <v>0.001375</v>
       </c>
     </row>
     <row r="1306" spans="1:2">
@@ -10834,7 +10834,7 @@
         <v>36369</v>
       </c>
       <c r="B1306">
-        <v>0.001</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="1307" spans="1:2">
@@ -10842,7 +10842,7 @@
         <v>36370</v>
       </c>
       <c r="B1307">
-        <v>0.001</v>
+        <v>0.3319583333333334</v>
       </c>
     </row>
     <row r="1308" spans="1:2">
@@ -10850,7 +10850,7 @@
         <v>36371</v>
       </c>
       <c r="B1308">
-        <v>0.001</v>
+        <v>0.5008749999999998</v>
       </c>
     </row>
     <row r="1309" spans="1:2">
@@ -10858,7 +10858,7 @@
         <v>36372</v>
       </c>
       <c r="B1309">
-        <v>0.001</v>
+        <v>0.5927083333333332</v>
       </c>
     </row>
     <row r="1310" spans="1:2">
@@ -10866,7 +10866,7 @@
         <v>36373</v>
       </c>
       <c r="B1310">
-        <v>0.001</v>
+        <v>0.944291666666667</v>
       </c>
     </row>
     <row r="1311" spans="1:2">
@@ -10874,7 +10874,7 @@
         <v>36374</v>
       </c>
       <c r="B1311">
-        <v>0.001</v>
+        <v>0.9610416666666666</v>
       </c>
     </row>
     <row r="1312" spans="1:2">
@@ -10882,7 +10882,7 @@
         <v>36375</v>
       </c>
       <c r="B1312">
-        <v>0.001</v>
+        <v>0.9619166666666668</v>
       </c>
     </row>
     <row r="1313" spans="1:2">
@@ -10890,7 +10890,7 @@
         <v>36376</v>
       </c>
       <c r="B1313">
-        <v>0.001</v>
+        <v>0.9646666666666665</v>
       </c>
     </row>
     <row r="1314" spans="1:2">
@@ -10898,7 +10898,7 @@
         <v>36377</v>
       </c>
       <c r="B1314">
-        <v>0.001</v>
+        <v>0.9640416666666668</v>
       </c>
     </row>
     <row r="1315" spans="1:2">
@@ -10906,7 +10906,7 @@
         <v>36378</v>
       </c>
       <c r="B1315">
-        <v>0.001</v>
+        <v>0.9597916666666667</v>
       </c>
     </row>
     <row r="1316" spans="1:2">
@@ -10914,7 +10914,7 @@
         <v>36379</v>
       </c>
       <c r="B1316">
-        <v>0.001</v>
+        <v>0.9642916666666667</v>
       </c>
     </row>
     <row r="1317" spans="1:2">
@@ -10922,7 +10922,7 @@
         <v>36380</v>
       </c>
       <c r="B1317">
-        <v>0.001</v>
+        <v>0.9622083333333333</v>
       </c>
     </row>
     <row r="1318" spans="1:2">
@@ -10930,7 +10930,7 @@
         <v>36381</v>
       </c>
       <c r="B1318">
-        <v>0.001</v>
+        <v>0.9524583333333331</v>
       </c>
     </row>
     <row r="1319" spans="1:2">
@@ -10938,7 +10938,7 @@
         <v>36382</v>
       </c>
       <c r="B1319">
-        <v>0.001</v>
+        <v>0.9575</v>
       </c>
     </row>
     <row r="1320" spans="1:2">
@@ -10946,7 +10946,7 @@
         <v>36383</v>
       </c>
       <c r="B1320">
-        <v>0.001</v>
+        <v>0.9690833333333334</v>
       </c>
     </row>
     <row r="1321" spans="1:2">
@@ -10954,7 +10954,7 @@
         <v>36384</v>
       </c>
       <c r="B1321">
-        <v>0.001</v>
+        <v>0.9630833333333332</v>
       </c>
     </row>
     <row r="1322" spans="1:2">
@@ -10962,7 +10962,7 @@
         <v>36385</v>
       </c>
       <c r="B1322">
-        <v>0.001</v>
+        <v>0.9664166666666664</v>
       </c>
     </row>
     <row r="1323" spans="1:2">
@@ -10970,7 +10970,7 @@
         <v>36386</v>
       </c>
       <c r="B1323">
-        <v>0.001</v>
+        <v>0.9699166666666664</v>
       </c>
     </row>
     <row r="1324" spans="1:2">
@@ -10978,7 +10978,7 @@
         <v>36387</v>
       </c>
       <c r="B1324">
-        <v>0.001</v>
+        <v>0.9698333333333332</v>
       </c>
     </row>
     <row r="1325" spans="1:2">
@@ -10986,7 +10986,7 @@
         <v>36388</v>
       </c>
       <c r="B1325">
-        <v>0.001</v>
+        <v>0.9614999999999999</v>
       </c>
     </row>
     <row r="1326" spans="1:2">
@@ -10994,7 +10994,7 @@
         <v>36389</v>
       </c>
       <c r="B1326">
-        <v>0.001</v>
+        <v>0.954125</v>
       </c>
     </row>
     <row r="1327" spans="1:2">
@@ -11002,7 +11002,7 @@
         <v>36390</v>
       </c>
       <c r="B1327">
-        <v>0.001</v>
+        <v>0.9684583333333333</v>
       </c>
     </row>
     <row r="1328" spans="1:2">
@@ -11010,7 +11010,7 @@
         <v>36391</v>
       </c>
       <c r="B1328">
-        <v>0.001</v>
+        <v>0.9605833333333331</v>
       </c>
     </row>
     <row r="1329" spans="1:2">
@@ -11018,7 +11018,7 @@
         <v>36392</v>
       </c>
       <c r="B1329">
-        <v>0.001</v>
+        <v>0.9622916666666662</v>
       </c>
     </row>
     <row r="1330" spans="1:2">
@@ -11026,7 +11026,7 @@
         <v>36393</v>
       </c>
       <c r="B1330">
-        <v>0.001</v>
+        <v>0.9674999999999998</v>
       </c>
     </row>
     <row r="1331" spans="1:2">
@@ -11034,7 +11034,7 @@
         <v>36394</v>
       </c>
       <c r="B1331">
-        <v>0.001</v>
+        <v>0.970916666666667</v>
       </c>
     </row>
     <row r="1332" spans="1:2">
@@ -11042,7 +11042,7 @@
         <v>36395</v>
       </c>
       <c r="B1332">
-        <v>0.001</v>
+        <v>0.9592083333333332</v>
       </c>
     </row>
     <row r="1333" spans="1:2">
@@ -11050,7 +11050,7 @@
         <v>36396</v>
       </c>
       <c r="B1333">
-        <v>0.001</v>
+        <v>0.9568750000000001</v>
       </c>
     </row>
     <row r="1334" spans="1:2">
@@ -11058,7 +11058,7 @@
         <v>36397</v>
       </c>
       <c r="B1334">
-        <v>0.001</v>
+        <v>0.9744583333333336</v>
       </c>
     </row>
     <row r="1335" spans="1:2">
@@ -11066,7 +11066,7 @@
         <v>36398</v>
       </c>
       <c r="B1335">
-        <v>0.001</v>
+        <v>0.9644583333333333</v>
       </c>
     </row>
     <row r="1336" spans="1:2">
@@ -11074,7 +11074,7 @@
         <v>36399</v>
       </c>
       <c r="B1336">
-        <v>0.001</v>
+        <v>0.9659166666666668</v>
       </c>
     </row>
     <row r="1337" spans="1:2">
@@ -11082,7 +11082,7 @@
         <v>36400</v>
       </c>
       <c r="B1337">
-        <v>0.001</v>
+        <v>0.9702916666666669</v>
       </c>
     </row>
     <row r="1338" spans="1:2">
@@ -11090,7 +11090,7 @@
         <v>36401</v>
       </c>
       <c r="B1338">
-        <v>0.001</v>
+        <v>0.9688750000000002</v>
       </c>
     </row>
     <row r="1339" spans="1:2">
@@ -11098,7 +11098,7 @@
         <v>36402</v>
       </c>
       <c r="B1339">
-        <v>0.001</v>
+        <v>0.967086956521739</v>
       </c>
     </row>
     <row r="1340" spans="1:2">
@@ -11106,7 +11106,7 @@
         <v>36403</v>
       </c>
       <c r="B1340">
-        <v>0.001</v>
+        <v>0.9673333333333333</v>
       </c>
     </row>
     <row r="1341" spans="1:2">
@@ -11114,7 +11114,7 @@
         <v>36404</v>
       </c>
       <c r="B1341">
-        <v>0.001</v>
+        <v>0.971090909090909</v>
       </c>
     </row>
     <row r="1342" spans="1:2">
@@ -11122,7 +11122,7 @@
         <v>36405</v>
       </c>
       <c r="B1342">
-        <v>0.001</v>
+        <v>0.9575000000000001</v>
       </c>
     </row>
     <row r="1343" spans="1:2">
@@ -11130,7 +11130,7 @@
         <v>36406</v>
       </c>
       <c r="B1343">
-        <v>0.001</v>
+        <v>0.9565833333333332</v>
       </c>
     </row>
     <row r="1344" spans="1:2">
@@ -11138,7 +11138,7 @@
         <v>36407</v>
       </c>
       <c r="B1344">
-        <v>0.001</v>
+        <v>0.9641666666666664</v>
       </c>
     </row>
     <row r="1345" spans="1:2">
@@ -11146,7 +11146,7 @@
         <v>36408</v>
       </c>
       <c r="B1345">
-        <v>0.001</v>
+        <v>0.9715833333333336</v>
       </c>
     </row>
     <row r="1346" spans="1:2">
@@ -11154,7 +11154,7 @@
         <v>36409</v>
       </c>
       <c r="B1346">
-        <v>0.001</v>
+        <v>0.971625</v>
       </c>
     </row>
     <row r="1347" spans="1:2">
@@ -11162,7 +11162,7 @@
         <v>36410</v>
       </c>
       <c r="B1347">
-        <v>0.001</v>
+        <v>0.9613749999999995</v>
       </c>
     </row>
     <row r="1348" spans="1:2">
@@ -11170,7 +11170,7 @@
         <v>36411</v>
       </c>
       <c r="B1348">
-        <v>0.001</v>
+        <v>0.9564999999999998</v>
       </c>
     </row>
     <row r="1349" spans="1:2">
@@ -11178,7 +11178,7 @@
         <v>36412</v>
       </c>
       <c r="B1349">
-        <v>0.001</v>
+        <v>0.9607916666666668</v>
       </c>
     </row>
     <row r="1350" spans="1:2">
@@ -11186,7 +11186,7 @@
         <v>36413</v>
       </c>
       <c r="B1350">
-        <v>0.001</v>
+        <v>0.956291666666667</v>
       </c>
     </row>
     <row r="1351" spans="1:2">
@@ -11194,7 +11194,7 @@
         <v>36414</v>
       </c>
       <c r="B1351">
-        <v>0.001</v>
+        <v>0.9695833333333331</v>
       </c>
     </row>
     <row r="1352" spans="1:2">
@@ -11202,7 +11202,7 @@
         <v>36415</v>
       </c>
       <c r="B1352">
-        <v>0.001</v>
+        <v>0.9699999999999998</v>
       </c>
     </row>
     <row r="1353" spans="1:2">
@@ -11210,7 +11210,7 @@
         <v>36416</v>
       </c>
       <c r="B1353">
-        <v>0.001</v>
+        <v>0.956541666666667</v>
       </c>
     </row>
     <row r="1354" spans="1:2">
@@ -11218,7 +11218,7 @@
         <v>36417</v>
       </c>
       <c r="B1354">
-        <v>0.001</v>
+        <v>0.9584999999999998</v>
       </c>
     </row>
     <row r="1355" spans="1:2">
@@ -11226,7 +11226,7 @@
         <v>36418</v>
       </c>
       <c r="B1355">
-        <v>0.001</v>
+        <v>0.9656250000000002</v>
       </c>
     </row>
     <row r="1356" spans="1:2">
@@ -11234,7 +11234,7 @@
         <v>36419</v>
       </c>
       <c r="B1356">
-        <v>0.001</v>
+        <v>0.9607916666666663</v>
       </c>
     </row>
     <row r="1357" spans="1:2">
@@ -11242,7 +11242,7 @@
         <v>36420</v>
       </c>
       <c r="B1357">
-        <v>0.001</v>
+        <v>0.9700416666666665</v>
       </c>
     </row>
     <row r="1358" spans="1:2">
@@ -11250,7 +11250,7 @@
         <v>36421</v>
       </c>
       <c r="B1358">
-        <v>0.001</v>
+        <v>0.9707916666666666</v>
       </c>
     </row>
     <row r="1359" spans="1:2">
@@ -11258,7 +11258,7 @@
         <v>36422</v>
       </c>
       <c r="B1359">
-        <v>0.001</v>
+        <v>0.970625</v>
       </c>
     </row>
     <row r="1360" spans="1:2">
@@ -11266,7 +11266,7 @@
         <v>36423</v>
       </c>
       <c r="B1360">
-        <v>0.001</v>
+        <v>0.9575</v>
       </c>
     </row>
     <row r="1361" spans="1:2">
@@ -11274,7 +11274,7 @@
         <v>36424</v>
       </c>
       <c r="B1361">
-        <v>0.001</v>
+        <v>0.9617083333333332</v>
       </c>
     </row>
     <row r="1362" spans="1:2">
@@ -11282,7 +11282,7 @@
         <v>36425</v>
       </c>
       <c r="B1362">
-        <v>0.001</v>
+        <v>0.9654166666666661</v>
       </c>
     </row>
     <row r="1363" spans="1:2">
@@ -11290,7 +11290,7 @@
         <v>36426</v>
       </c>
       <c r="B1363">
-        <v>0.001</v>
+        <v>0.9536250000000002</v>
       </c>
     </row>
     <row r="1364" spans="1:2">
@@ -11298,7 +11298,7 @@
         <v>36427</v>
       </c>
       <c r="B1364">
-        <v>0.001</v>
+        <v>0.9567499999999999</v>
       </c>
     </row>
     <row r="1365" spans="1:2">
@@ -11306,7 +11306,7 @@
         <v>36428</v>
       </c>
       <c r="B1365">
-        <v>0.001</v>
+        <v>0.961458333333333</v>
       </c>
     </row>
     <row r="1366" spans="1:2">
@@ -11314,7 +11314,7 @@
         <v>36429</v>
       </c>
       <c r="B1366">
-        <v>0.001</v>
+        <v>0.9633750000000001</v>
       </c>
     </row>
     <row r="1367" spans="1:2">
@@ -11322,7 +11322,7 @@
         <v>36430</v>
       </c>
       <c r="B1367">
-        <v>0.001</v>
+        <v>0.9600000000000001</v>
       </c>
     </row>
     <row r="1368" spans="1:2">
@@ -11330,7 +11330,7 @@
         <v>36431</v>
       </c>
       <c r="B1368">
-        <v>0.001</v>
+        <v>0.9603333333333333</v>
       </c>
     </row>
     <row r="1369" spans="1:2">
@@ -11338,7 +11338,7 @@
         <v>36432</v>
       </c>
       <c r="B1369">
-        <v>0.001</v>
+        <v>0.9688333333333331</v>
       </c>
     </row>
     <row r="1370" spans="1:2">
@@ -11346,7 +11346,7 @@
         <v>36433</v>
       </c>
       <c r="B1370">
-        <v>0.001</v>
+        <v>0.9631250000000002</v>
       </c>
     </row>
     <row r="1371" spans="1:2">
@@ -11354,7 +11354,7 @@
         <v>36434</v>
       </c>
       <c r="B1371">
-        <v>0.001</v>
+        <v>0.9641249999999998</v>
       </c>
     </row>
     <row r="1372" spans="1:2">
@@ -11362,7 +11362,7 @@
         <v>36435</v>
       </c>
       <c r="B1372">
-        <v>0.001</v>
+        <v>0.9683333333333336</v>
       </c>
     </row>
     <row r="1373" spans="1:2">
@@ -11370,7 +11370,7 @@
         <v>36436</v>
       </c>
       <c r="B1373">
-        <v>0.001</v>
+        <v>0.9690000000000003</v>
       </c>
     </row>
     <row r="1374" spans="1:2">
@@ -11378,7 +11378,7 @@
         <v>36437</v>
       </c>
       <c r="B1374">
-        <v>0.001</v>
+        <v>0.9534583333333334</v>
       </c>
     </row>
     <row r="1375" spans="1:2">
@@ -11386,7 +11386,7 @@
         <v>36438</v>
       </c>
       <c r="B1375">
-        <v>0.001</v>
+        <v>0.9626666666666668</v>
       </c>
     </row>
     <row r="1376" spans="1:2">
@@ -11394,7 +11394,7 @@
         <v>36439</v>
       </c>
       <c r="B1376">
-        <v>0.001</v>
+        <v>0.9659166666666668</v>
       </c>
     </row>
     <row r="1377" spans="1:2">
@@ -11402,7 +11402,7 @@
         <v>36440</v>
       </c>
       <c r="B1377">
-        <v>0.001</v>
+        <v>0.9560000000000004</v>
       </c>
     </row>
     <row r="1378" spans="1:2">
@@ -11410,7 +11410,7 @@
         <v>36441</v>
       </c>
       <c r="B1378">
-        <v>0.001</v>
+        <v>0.9598333333333331</v>
       </c>
     </row>
     <row r="1379" spans="1:2">
@@ -11418,7 +11418,7 @@
         <v>36442</v>
       </c>
       <c r="B1379">
-        <v>0.001</v>
+        <v>0.9679166666666666</v>
       </c>
     </row>
     <row r="1380" spans="1:2">
@@ -11426,7 +11426,7 @@
         <v>36443</v>
       </c>
       <c r="B1380">
-        <v>0.001</v>
+        <v>0.9679166666666665</v>
       </c>
     </row>
     <row r="1381" spans="1:2">
@@ -11434,7 +11434,7 @@
         <v>36444</v>
       </c>
       <c r="B1381">
-        <v>0.001</v>
+        <v>0.9691666666666666</v>
       </c>
     </row>
     <row r="1382" spans="1:2">
@@ -11442,7 +11442,7 @@
         <v>36445</v>
       </c>
       <c r="B1382">
-        <v>0.001</v>
+        <v>0.9699999999999998</v>
       </c>
     </row>
     <row r="1383" spans="1:2">
@@ -11450,7 +11450,7 @@
         <v>36446</v>
       </c>
       <c r="B1383">
-        <v>0.001</v>
+        <v>0.9699583333333331</v>
       </c>
     </row>
     <row r="1384" spans="1:2">
@@ -11458,7 +11458,7 @@
         <v>36447</v>
       </c>
       <c r="B1384">
-        <v>0.001</v>
+        <v>0.9685833333333331</v>
       </c>
     </row>
     <row r="1385" spans="1:2">
@@ -11466,7 +11466,7 @@
         <v>36448</v>
       </c>
       <c r="B1385">
-        <v>0.001</v>
+        <v>0.9672083333333336</v>
       </c>
     </row>
     <row r="1386" spans="1:2">
@@ -11474,7 +11474,7 @@
         <v>36449</v>
       </c>
       <c r="B1386">
-        <v>0.001</v>
+        <v>0.9649166666666669</v>
       </c>
     </row>
     <row r="1387" spans="1:2">
@@ -11482,7 +11482,7 @@
         <v>36450</v>
       </c>
       <c r="B1387">
-        <v>0.001</v>
+        <v>0.952125</v>
       </c>
     </row>
     <row r="1388" spans="1:2">
@@ -11490,7 +11490,7 @@
         <v>36451</v>
       </c>
       <c r="B1388">
-        <v>0.001</v>
+        <v>0.9581666666666667</v>
       </c>
     </row>
     <row r="1389" spans="1:2">
@@ -11498,7 +11498,7 @@
         <v>36452</v>
       </c>
       <c r="B1389">
-        <v>0.001</v>
+        <v>0.9644166666666664</v>
       </c>
     </row>
     <row r="1390" spans="1:2">
@@ -11506,7 +11506,7 @@
         <v>36453</v>
       </c>
       <c r="B1390">
-        <v>0.001</v>
+        <v>0.9571666666666666</v>
       </c>
     </row>
     <row r="1391" spans="1:2">
@@ -11514,7 +11514,7 @@
         <v>36454</v>
       </c>
       <c r="B1391">
-        <v>0.001</v>
+        <v>0.9622727272727272</v>
       </c>
     </row>
     <row r="1392" spans="1:2">
@@ -11522,7 +11522,7 @@
         <v>36455</v>
       </c>
       <c r="B1392">
-        <v>0.001</v>
+        <v>0.9620000000000002</v>
       </c>
     </row>
     <row r="1393" spans="1:2">
@@ -11530,7 +11530,7 @@
         <v>36456</v>
       </c>
       <c r="B1393">
-        <v>0.001</v>
+        <v>0.9654166666666667</v>
       </c>
     </row>
     <row r="1394" spans="1:2">
@@ -11538,7 +11538,7 @@
         <v>36457</v>
       </c>
       <c r="B1394">
-        <v>0.001</v>
+        <v>0.9619166666666664</v>
       </c>
     </row>
     <row r="1395" spans="1:2">
@@ -11546,7 +11546,7 @@
         <v>36458</v>
       </c>
       <c r="B1395">
-        <v>0.001</v>
+        <v>0.9524999999999996</v>
       </c>
     </row>
     <row r="1396" spans="1:2">
@@ -11554,7 +11554,7 @@
         <v>36459</v>
       </c>
       <c r="B1396">
-        <v>0.001</v>
+        <v>0.9479166666666669</v>
       </c>
     </row>
     <row r="1397" spans="1:2">
@@ -11562,7 +11562,7 @@
         <v>36460</v>
       </c>
       <c r="B1397">
-        <v>0.001</v>
+        <v>0.9585416666666665</v>
       </c>
     </row>
     <row r="1398" spans="1:2">
@@ -11570,7 +11570,7 @@
         <v>36461</v>
       </c>
       <c r="B1398">
-        <v>0.001</v>
+        <v>0.9493333333333333</v>
       </c>
     </row>
     <row r="1399" spans="1:2">
@@ -11578,7 +11578,7 @@
         <v>36462</v>
       </c>
       <c r="B1399">
-        <v>0.001</v>
+        <v>0.9577083333333336</v>
       </c>
     </row>
     <row r="1400" spans="1:2">
@@ -11586,7 +11586,7 @@
         <v>36463</v>
       </c>
       <c r="B1400">
-        <v>0.001</v>
+        <v>0.9602916666666669</v>
       </c>
     </row>
     <row r="1401" spans="1:2">
@@ -11594,7 +11594,7 @@
         <v>36464</v>
       </c>
       <c r="B1401">
-        <v>0.001</v>
+        <v>0.9504583333333332</v>
       </c>
     </row>
     <row r="1402" spans="1:2">
@@ -11602,7 +11602,7 @@
         <v>36465</v>
       </c>
       <c r="B1402">
-        <v>0.001</v>
+        <v>0.9481666666666668</v>
       </c>
     </row>
     <row r="1403" spans="1:2">
@@ -11610,7 +11610,7 @@
         <v>36466</v>
       </c>
       <c r="B1403">
-        <v>0.001</v>
+        <v>0.9448333333333331</v>
       </c>
     </row>
     <row r="1404" spans="1:2">
@@ -11618,7 +11618,7 @@
         <v>36467</v>
       </c>
       <c r="B1404">
-        <v>0.001</v>
+        <v>0.9533333333333335</v>
       </c>
     </row>
     <row r="1405" spans="1:2">
@@ -11626,7 +11626,7 @@
         <v>36468</v>
       </c>
       <c r="B1405">
-        <v>0.001</v>
+        <v>0.9472083333333338</v>
       </c>
     </row>
     <row r="1406" spans="1:2">
@@ -11634,7 +11634,7 @@
         <v>36469</v>
       </c>
       <c r="B1406">
-        <v>0.001</v>
+        <v>0.9576249999999994</v>
       </c>
     </row>
     <row r="1407" spans="1:2">
@@ -11642,7 +11642,7 @@
         <v>36470</v>
       </c>
       <c r="B1407">
-        <v>0.001</v>
+        <v>0.9629166666666666</v>
       </c>
     </row>
     <row r="1408" spans="1:2">
@@ -11650,7 +11650,7 @@
         <v>36471</v>
       </c>
       <c r="B1408">
-        <v>0.001</v>
+        <v>0.9544166666666664</v>
       </c>
     </row>
     <row r="1409" spans="1:2">
@@ -11658,7 +11658,7 @@
         <v>36472</v>
       </c>
       <c r="B1409">
-        <v>0.001</v>
+        <v>0.9469583333333337</v>
       </c>
     </row>
     <row r="1410" spans="1:2">
@@ -11666,7 +11666,7 @@
         <v>36473</v>
       </c>
       <c r="B1410">
-        <v>0.001</v>
+        <v>0.9490416666666671</v>
       </c>
     </row>
     <row r="1411" spans="1:2">
@@ -11674,7 +11674,7 @@
         <v>36474</v>
       </c>
       <c r="B1411">
-        <v>0.001</v>
+        <v>0.9551249999999997</v>
       </c>
     </row>
     <row r="1412" spans="1:2">
@@ -11682,7 +11682,7 @@
         <v>36475</v>
       </c>
       <c r="B1412">
-        <v>0.001</v>
+        <v>0.9506666666666662</v>
       </c>
     </row>
     <row r="1413" spans="1:2">
@@ -11690,7 +11690,7 @@
         <v>36476</v>
       </c>
       <c r="B1413">
-        <v>0.001</v>
+        <v>0.9435416666666669</v>
       </c>
     </row>
     <row r="1414" spans="1:2">
@@ -11698,7 +11698,7 @@
         <v>36477</v>
       </c>
       <c r="B1414">
-        <v>0.001</v>
+        <v>0.958391304347826</v>
       </c>
     </row>
     <row r="1415" spans="1:2">
@@ -11706,7 +11706,7 @@
         <v>36478</v>
       </c>
       <c r="B1415">
-        <v>0.001</v>
+        <v>0.9412083333333331</v>
       </c>
     </row>
     <row r="1416" spans="1:2">
@@ -11714,7 +11714,7 @@
         <v>36479</v>
       </c>
       <c r="B1416">
-        <v>0.001</v>
+        <v>0.93925</v>
       </c>
     </row>
     <row r="1417" spans="1:2">
@@ -11722,7 +11722,7 @@
         <v>36480</v>
       </c>
       <c r="B1417">
-        <v>0.001</v>
+        <v>0.9529583333333328</v>
       </c>
     </row>
     <row r="1418" spans="1:2">
@@ -11730,7 +11730,7 @@
         <v>36481</v>
       </c>
       <c r="B1418">
-        <v>0.001</v>
+        <v>0.9446250000000004</v>
       </c>
     </row>
     <row r="1419" spans="1:2">
@@ -11738,7 +11738,7 @@
         <v>36482</v>
       </c>
       <c r="B1419">
-        <v>0.001</v>
+        <v>0.9302916666666666</v>
       </c>
     </row>
     <row r="1420" spans="1:2">
@@ -11746,7 +11746,7 @@
         <v>36483</v>
       </c>
       <c r="B1420">
-        <v>0.001</v>
+        <v>0.9451250000000001</v>
       </c>
     </row>
     <row r="1421" spans="1:2">
@@ -11754,7 +11754,7 @@
         <v>36484</v>
       </c>
       <c r="B1421">
-        <v>0.001</v>
+        <v>0.9510000000000002</v>
       </c>
     </row>
     <row r="1422" spans="1:2">
@@ -11762,7 +11762,7 @@
         <v>36485</v>
       </c>
       <c r="B1422">
-        <v>0.001</v>
+        <v>0.9527499999999999</v>
       </c>
     </row>
     <row r="1423" spans="1:2">
@@ -11770,7 +11770,7 @@
         <v>36486</v>
       </c>
       <c r="B1423">
-        <v>0.001</v>
+        <v>0.949666666666667</v>
       </c>
     </row>
     <row r="1424" spans="1:2">
@@ -11778,7 +11778,7 @@
         <v>36487</v>
       </c>
       <c r="B1424">
-        <v>0.001</v>
+        <v>0.9532083333333333</v>
       </c>
     </row>
     <row r="1425" spans="1:2">
@@ -11786,7 +11786,7 @@
         <v>36488</v>
       </c>
       <c r="B1425">
-        <v>0.001</v>
+        <v>0.9562499999999998</v>
       </c>
     </row>
     <row r="1426" spans="1:2">
@@ -11794,7 +11794,7 @@
         <v>36489</v>
       </c>
       <c r="B1426">
-        <v>0.001</v>
+        <v>0.9444583333333335</v>
       </c>
     </row>
     <row r="1427" spans="1:2">
@@ -11802,7 +11802,7 @@
         <v>36490</v>
       </c>
       <c r="B1427">
-        <v>0.001</v>
+        <v>0.9541250000000002</v>
       </c>
     </row>
     <row r="1428" spans="1:2">
@@ -11810,7 +11810,7 @@
         <v>36491</v>
       </c>
       <c r="B1428">
-        <v>0.001</v>
+        <v>0.954041666666667</v>
       </c>
     </row>
     <row r="1429" spans="1:2">
@@ -11818,7 +11818,7 @@
         <v>36492</v>
       </c>
       <c r="B1429">
-        <v>0.001</v>
+        <v>0.9541666666666669</v>
       </c>
     </row>
     <row r="1430" spans="1:2">
@@ -11826,7 +11826,7 @@
         <v>36493</v>
       </c>
       <c r="B1430">
-        <v>0.001</v>
+        <v>0.9535</v>
       </c>
     </row>
     <row r="1431" spans="1:2">
@@ -11834,7 +11834,7 @@
         <v>36494</v>
       </c>
       <c r="B1431">
-        <v>0.001</v>
+        <v>0.9609583333333331</v>
       </c>
     </row>
     <row r="1432" spans="1:2">
@@ -11842,7 +11842,7 @@
         <v>36495</v>
       </c>
       <c r="B1432">
-        <v>0.001</v>
+        <v>0.9538750000000001</v>
       </c>
     </row>
     <row r="1433" spans="1:2">
@@ -11850,7 +11850,7 @@
         <v>36496</v>
       </c>
       <c r="B1433">
-        <v>0.001</v>
+        <v>0.9548333333333335</v>
       </c>
     </row>
     <row r="1434" spans="1:2">
@@ -11858,7 +11858,7 @@
         <v>36497</v>
       </c>
       <c r="B1434">
-        <v>0.001</v>
+        <v>0.9589166666666663</v>
       </c>
     </row>
     <row r="1435" spans="1:2">
@@ -11866,7 +11866,7 @@
         <v>36498</v>
       </c>
       <c r="B1435">
-        <v>0.001</v>
+        <v>0.9518750000000004</v>
       </c>
     </row>
     <row r="1436" spans="1:2">
@@ -11874,7 +11874,7 @@
         <v>36499</v>
       </c>
       <c r="B1436">
-        <v>0.001</v>
+        <v>0.9388749999999996</v>
       </c>
     </row>
     <row r="1437" spans="1:2">
@@ -11882,7 +11882,7 @@
         <v>36500</v>
       </c>
       <c r="B1437">
-        <v>0.001</v>
+        <v>0.9540000000000002</v>
       </c>
     </row>
     <row r="1438" spans="1:2">
@@ -11890,7 +11890,7 @@
         <v>36501</v>
       </c>
       <c r="B1438">
-        <v>0.001</v>
+        <v>0.9498750000000001</v>
       </c>
     </row>
     <row r="1439" spans="1:2">
@@ -11898,7 +11898,7 @@
         <v>36502</v>
       </c>
       <c r="B1439">
-        <v>0.001</v>
+        <v>0.9547499999999994</v>
       </c>
     </row>
     <row r="1440" spans="1:2">
@@ -11906,7 +11906,7 @@
         <v>36503</v>
       </c>
       <c r="B1440">
-        <v>0.001</v>
+        <v>0.9480000000000003</v>
       </c>
     </row>
     <row r="1441" spans="1:2">
@@ -11914,7 +11914,7 @@
         <v>36504</v>
       </c>
       <c r="B1441">
-        <v>0.001</v>
+        <v>0.9425833333333332</v>
       </c>
     </row>
     <row r="1442" spans="1:2">
@@ -11922,7 +11922,7 @@
         <v>36505</v>
       </c>
       <c r="B1442">
-        <v>0.001</v>
+        <v>0.9579583333333329</v>
       </c>
     </row>
     <row r="1443" spans="1:2">
@@ -11930,7 +11930,7 @@
         <v>36506</v>
       </c>
       <c r="B1443">
-        <v>0.001</v>
+        <v>0.9542499999999999</v>
       </c>
     </row>
     <row r="1444" spans="1:2">
@@ -11938,7 +11938,7 @@
         <v>36507</v>
       </c>
       <c r="B1444">
-        <v>0.001</v>
+        <v>0.9536249999999998</v>
       </c>
     </row>
     <row r="1445" spans="1:2">
@@ -11946,7 +11946,7 @@
         <v>36508</v>
       </c>
       <c r="B1445">
-        <v>0.001</v>
+        <v>0.9452083333333333</v>
       </c>
     </row>
     <row r="1446" spans="1:2">
@@ -11954,7 +11954,7 @@
         <v>36509</v>
       </c>
       <c r="B1446">
-        <v>0.001</v>
+        <v>0.9560833333333337</v>
       </c>
     </row>
     <row r="1447" spans="1:2">
@@ -11962,7 +11962,7 @@
         <v>36510</v>
       </c>
       <c r="B1447">
-        <v>0.001</v>
+        <v>0.9534166666666667</v>
       </c>
     </row>
     <row r="1448" spans="1:2">
@@ -11970,7 +11970,7 @@
         <v>36511</v>
       </c>
       <c r="B1448">
-        <v>0.001</v>
+        <v>0.9540833333333335</v>
       </c>
     </row>
     <row r="1449" spans="1:2">
@@ -11978,7 +11978,7 @@
         <v>36512</v>
       </c>
       <c r="B1449">
-        <v>0.001</v>
+        <v>0.9573749999999998</v>
       </c>
     </row>
     <row r="1450" spans="1:2">
@@ -11986,7 +11986,7 @@
         <v>36513</v>
       </c>
       <c r="B1450">
-        <v>0.001</v>
+        <v>0.9522916666666665</v>
       </c>
     </row>
     <row r="1451" spans="1:2">
@@ -11994,7 +11994,7 @@
         <v>36514</v>
       </c>
       <c r="B1451">
-        <v>0.001</v>
+        <v>0.9464166666666665</v>
       </c>
     </row>
     <row r="1452" spans="1:2">
@@ -12002,7 +12002,7 @@
         <v>36515</v>
       </c>
       <c r="B1452">
-        <v>0.001</v>
+        <v>0.9446250000000003</v>
       </c>
     </row>
     <row r="1453" spans="1:2">
@@ -12010,7 +12010,7 @@
         <v>36516</v>
       </c>
       <c r="B1453">
-        <v>0.001</v>
+        <v>0.9544999999999996</v>
       </c>
     </row>
     <row r="1454" spans="1:2">
@@ -12018,7 +12018,7 @@
         <v>36517</v>
       </c>
       <c r="B1454">
-        <v>0.001</v>
+        <v>0.9505833333333337</v>
       </c>
     </row>
     <row r="1455" spans="1:2">
@@ -12026,7 +12026,7 @@
         <v>36518</v>
       </c>
       <c r="B1455">
-        <v>0.001</v>
+        <v>0.947217391304348</v>
       </c>
     </row>
     <row r="1456" spans="1:2">
@@ -12034,7 +12034,7 @@
         <v>36519</v>
       </c>
       <c r="B1456">
-        <v>0.001</v>
+        <v>0.9520416666666667</v>
       </c>
     </row>
     <row r="1457" spans="1:2">
@@ -12042,7 +12042,7 @@
         <v>36520</v>
       </c>
       <c r="B1457">
-        <v>0.001</v>
+        <v>0.9509583333333335</v>
       </c>
     </row>
     <row r="1458" spans="1:2">
@@ -12050,7 +12050,7 @@
         <v>36521</v>
       </c>
       <c r="B1458">
-        <v>0.001</v>
+        <v>0.950916666666667</v>
       </c>
     </row>
     <row r="1459" spans="1:2">
@@ -12058,7 +12058,7 @@
         <v>36522</v>
       </c>
       <c r="B1459">
-        <v>0.001</v>
+        <v>0.9398181818181818</v>
       </c>
     </row>
     <row r="1460" spans="1:2">
@@ -12066,7 +12066,7 @@
         <v>36523</v>
       </c>
       <c r="B1460">
-        <v>0.001</v>
+        <v>0.9402083333333334</v>
       </c>
     </row>
     <row r="1461" spans="1:2">
@@ -12074,7 +12074,7 @@
         <v>36524</v>
       </c>
       <c r="B1461">
-        <v>0.001</v>
+        <v>0.9357083333333334</v>
       </c>
     </row>
     <row r="1462" spans="1:2">
@@ -12082,7 +12082,7 @@
         <v>36525</v>
       </c>
       <c r="B1462">
-        <v>0.001</v>
+        <v>0.9469166666666667</v>
       </c>
     </row>
     <row r="1463" spans="1:2">
@@ -12090,7 +12090,7 @@
         <v>36526</v>
       </c>
       <c r="B1463">
-        <v>0.001</v>
+        <v>0.9503333333333331</v>
       </c>
     </row>
     <row r="1464" spans="1:2">
@@ -12098,7 +12098,7 @@
         <v>36527</v>
       </c>
       <c r="B1464">
-        <v>0.001</v>
+        <v>0.9523749999999996</v>
       </c>
     </row>
     <row r="1465" spans="1:2">
@@ -12106,7 +12106,7 @@
         <v>36528</v>
       </c>
       <c r="B1465">
-        <v>0.001</v>
+        <v>0.9585416666666662</v>
       </c>
     </row>
     <row r="1466" spans="1:2">
@@ -12114,7 +12114,7 @@
         <v>36529</v>
       </c>
       <c r="B1466">
-        <v>0.001</v>
+        <v>0.9528333333333339</v>
       </c>
     </row>
     <row r="1467" spans="1:2">
@@ -12122,7 +12122,7 @@
         <v>36530</v>
       </c>
       <c r="B1467">
-        <v>0.001</v>
+        <v>0.9549583333333332</v>
       </c>
     </row>
     <row r="1468" spans="1:2">
@@ -12130,7 +12130,7 @@
         <v>36531</v>
       </c>
       <c r="B1468">
-        <v>0.001</v>
+        <v>0.937791666666667</v>
       </c>
     </row>
     <row r="1469" spans="1:2">
@@ -12138,7 +12138,7 @@
         <v>36532</v>
       </c>
       <c r="B1469">
-        <v>0.001</v>
+        <v>0.9460416666666668</v>
       </c>
     </row>
     <row r="1470" spans="1:2">
@@ -12146,7 +12146,7 @@
         <v>36533</v>
       </c>
       <c r="B1470">
-        <v>0.001</v>
+        <v>0.9587500000000003</v>
       </c>
     </row>
     <row r="1471" spans="1:2">
@@ -12154,7 +12154,7 @@
         <v>36534</v>
       </c>
       <c r="B1471">
-        <v>0.001</v>
+        <v>0.9600000000000005</v>
       </c>
     </row>
     <row r="1472" spans="1:2">
@@ -12162,7 +12162,7 @@
         <v>36535</v>
       </c>
       <c r="B1472">
-        <v>0.001</v>
+        <v>0.949416666666667</v>
       </c>
     </row>
     <row r="1473" spans="1:2">
@@ -12170,7 +12170,7 @@
         <v>36536</v>
       </c>
       <c r="B1473">
-        <v>0.001</v>
+        <v>0.9450833333333333</v>
       </c>
     </row>
     <row r="1474" spans="1:2">
@@ -12178,7 +12178,7 @@
         <v>36537</v>
       </c>
       <c r="B1474">
-        <v>0.001</v>
+        <v>0.953041666666667</v>
       </c>
     </row>
     <row r="1475" spans="1:2">
@@ -12186,7 +12186,7 @@
         <v>36538</v>
       </c>
       <c r="B1475">
-        <v>0.001</v>
+        <v>0.9365416666666667</v>
       </c>
     </row>
     <row r="1476" spans="1:2">
@@ -12194,7 +12194,7 @@
         <v>36539</v>
       </c>
       <c r="B1476">
-        <v>0.001</v>
+        <v>0.9472499999999999</v>
       </c>
     </row>
     <row r="1477" spans="1:2">
@@ -12202,7 +12202,7 @@
         <v>36540</v>
       </c>
       <c r="B1477">
-        <v>0.001</v>
+        <v>0.9558749999999997</v>
       </c>
     </row>
     <row r="1478" spans="1:2">
@@ -12210,7 +12210,7 @@
         <v>36541</v>
       </c>
       <c r="B1478">
-        <v>0.001</v>
+        <v>0.952125</v>
       </c>
     </row>
     <row r="1479" spans="1:2">
@@ -12218,7 +12218,7 @@
         <v>36542</v>
       </c>
       <c r="B1479">
-        <v>0.001</v>
+        <v>0.9496250000000003</v>
       </c>
     </row>
     <row r="1480" spans="1:2">
@@ -12226,7 +12226,7 @@
         <v>36543</v>
       </c>
       <c r="B1480">
-        <v>0.001</v>
+        <v>0.9500833333333335</v>
       </c>
     </row>
     <row r="1481" spans="1:2">
@@ -12234,7 +12234,7 @@
         <v>36544</v>
       </c>
       <c r="B1481">
-        <v>0.001</v>
+        <v>0.9507499999999999</v>
       </c>
     </row>
     <row r="1482" spans="1:2">
@@ -12242,7 +12242,7 @@
         <v>36545</v>
       </c>
       <c r="B1482">
-        <v>0.001</v>
+        <v>0.9559166666666664</v>
       </c>
     </row>
     <row r="1483" spans="1:2">
@@ -12250,7 +12250,7 @@
         <v>36546</v>
       </c>
       <c r="B1483">
-        <v>0.001</v>
+        <v>0.9544583333333327</v>
       </c>
     </row>
     <row r="1484" spans="1:2">
@@ -12258,7 +12258,7 @@
         <v>36547</v>
       </c>
       <c r="B1484">
-        <v>0.001</v>
+        <v>0.957875</v>
       </c>
     </row>
     <row r="1485" spans="1:2">
@@ -12266,7 +12266,7 @@
         <v>36548</v>
       </c>
       <c r="B1485">
-        <v>0.001</v>
+        <v>0.9495833333333331</v>
       </c>
     </row>
     <row r="1486" spans="1:2">
@@ -12274,7 +12274,7 @@
         <v>36549</v>
       </c>
       <c r="B1486">
-        <v>0.001</v>
+        <v>0.9463749999999997</v>
       </c>
     </row>
     <row r="1487" spans="1:2">
@@ -12282,7 +12282,7 @@
         <v>36550</v>
       </c>
       <c r="B1487">
-        <v>0.001</v>
+        <v>0.953041666666667</v>
       </c>
     </row>
     <row r="1488" spans="1:2">
@@ -12290,7 +12290,7 @@
         <v>36551</v>
       </c>
       <c r="B1488">
-        <v>0.001</v>
+        <v>0.9588333333333329</v>
       </c>
     </row>
     <row r="1489" spans="1:2">
@@ -12298,7 +12298,7 @@
         <v>36552</v>
       </c>
       <c r="B1489">
-        <v>0.001</v>
+        <v>0.9584999999999996</v>
       </c>
     </row>
     <row r="1490" spans="1:2">
@@ -12306,7 +12306,7 @@
         <v>36553</v>
       </c>
       <c r="B1490">
-        <v>0.001</v>
+        <v>0.9493750000000002</v>
       </c>
     </row>
     <row r="1491" spans="1:2">
@@ -12314,7 +12314,7 @@
         <v>36554</v>
       </c>
       <c r="B1491">
-        <v>0.001</v>
+        <v>0.9550416666666665</v>
       </c>
     </row>
     <row r="1492" spans="1:2">
@@ -12322,7 +12322,7 @@
         <v>36555</v>
       </c>
       <c r="B1492">
-        <v>0.001</v>
+        <v>0.9515416666666662</v>
       </c>
     </row>
     <row r="1493" spans="1:2">
@@ -12330,7 +12330,7 @@
         <v>36556</v>
       </c>
       <c r="B1493">
-        <v>0.001</v>
+        <v>0.9507083333333332</v>
       </c>
     </row>
     <row r="1494" spans="1:2">
@@ -12338,7 +12338,7 @@
         <v>36557</v>
       </c>
       <c r="B1494">
-        <v>0.001</v>
+        <v>0.9519999999999996</v>
       </c>
     </row>
     <row r="1495" spans="1:2">
@@ -12346,7 +12346,7 @@
         <v>36558</v>
       </c>
       <c r="B1495">
-        <v>0.001</v>
+        <v>0.9609999999999997</v>
       </c>
     </row>
     <row r="1496" spans="1:2">
@@ -12354,7 +12354,7 @@
         <v>36559</v>
       </c>
       <c r="B1496">
-        <v>0.001</v>
+        <v>0.9576666666666669</v>
       </c>
     </row>
     <row r="1497" spans="1:2">
@@ -12362,7 +12362,7 @@
         <v>36560</v>
       </c>
       <c r="B1497">
-        <v>0.001</v>
+        <v>0.947833333333333</v>
       </c>
     </row>
     <row r="1498" spans="1:2">
@@ -12370,7 +12370,7 @@
         <v>36561</v>
       </c>
       <c r="B1498">
-        <v>0.001</v>
+        <v>0.9541666666666666</v>
       </c>
     </row>
     <row r="1499" spans="1:2">
@@ -12378,7 +12378,7 @@
         <v>36562</v>
       </c>
       <c r="B1499">
-        <v>0.001</v>
+        <v>0.9390000000000002</v>
       </c>
     </row>
     <row r="1500" spans="1:2">
@@ -12386,7 +12386,7 @@
         <v>36563</v>
       </c>
       <c r="B1500">
-        <v>0.001</v>
+        <v>0.9341666666666666</v>
       </c>
     </row>
     <row r="1501" spans="1:2">
@@ -12394,7 +12394,7 @@
         <v>36564</v>
       </c>
       <c r="B1501">
-        <v>0.001</v>
+        <v>0.9428750000000004</v>
       </c>
     </row>
     <row r="1502" spans="1:2">
@@ -12402,7 +12402,7 @@
         <v>36565</v>
       </c>
       <c r="B1502">
-        <v>0.001</v>
+        <v>0.9502499999999996</v>
       </c>
     </row>
     <row r="1503" spans="1:2">
@@ -12410,7 +12410,7 @@
         <v>36566</v>
       </c>
       <c r="B1503">
-        <v>0.001</v>
+        <v>0.9456666666666669</v>
       </c>
     </row>
     <row r="1504" spans="1:2">
@@ -12418,7 +12418,7 @@
         <v>36567</v>
       </c>
       <c r="B1504">
-        <v>0.001</v>
+        <v>0.9480833333333334</v>
       </c>
     </row>
     <row r="1505" spans="1:2">
@@ -12426,7 +12426,7 @@
         <v>36568</v>
       </c>
       <c r="B1505">
-        <v>0.001</v>
+        <v>0.9510000000000002</v>
       </c>
     </row>
     <row r="1506" spans="1:2">
@@ -12434,7 +12434,7 @@
         <v>36569</v>
       </c>
       <c r="B1506">
-        <v>0.001</v>
+        <v>0.9447916666666667</v>
       </c>
     </row>
     <row r="1507" spans="1:2">
@@ -12442,7 +12442,7 @@
         <v>36570</v>
       </c>
       <c r="B1507">
-        <v>0.001</v>
+        <v>0.9476666666666663</v>
       </c>
     </row>
     <row r="1508" spans="1:2">
@@ -12450,7 +12450,7 @@
         <v>36571</v>
       </c>
       <c r="B1508">
-        <v>0.001</v>
+        <v>0.9432499999999999</v>
       </c>
     </row>
     <row r="1509" spans="1:2">
@@ -12458,7 +12458,7 @@
         <v>36572</v>
       </c>
       <c r="B1509">
-        <v>0.001</v>
+        <v>0.9499999999999996</v>
       </c>
     </row>
     <row r="1510" spans="1:2">
@@ -12466,7 +12466,7 @@
         <v>36573</v>
       </c>
       <c r="B1510">
-        <v>0.001</v>
+        <v>0.9423749999999999</v>
       </c>
     </row>
     <row r="1511" spans="1:2">
@@ -12474,7 +12474,7 @@
         <v>36574</v>
       </c>
       <c r="B1511">
-        <v>0.001</v>
+        <v>0.9476249999999999</v>
       </c>
     </row>
     <row r="1512" spans="1:2">
@@ -12482,7 +12482,7 @@
         <v>36575</v>
       </c>
       <c r="B1512">
-        <v>0.001</v>
+        <v>0.9483333333333334</v>
       </c>
     </row>
     <row r="1513" spans="1:2">
@@ -12490,7 +12490,7 @@
         <v>36576</v>
       </c>
       <c r="B1513">
-        <v>0.001</v>
+        <v>0.9519583333333334</v>
       </c>
     </row>
     <row r="1514" spans="1:2">
@@ -12498,7 +12498,7 @@
         <v>36577</v>
       </c>
       <c r="B1514">
-        <v>0.001</v>
+        <v>0.9513333333333335</v>
       </c>
     </row>
     <row r="1515" spans="1:2">
@@ -12506,7 +12506,7 @@
         <v>36578</v>
       </c>
       <c r="B1515">
-        <v>0.001</v>
+        <v>0.9488333333333333</v>
       </c>
     </row>
     <row r="1516" spans="1:2">
@@ -12514,7 +12514,7 @@
         <v>36579</v>
       </c>
       <c r="B1516">
-        <v>0.001</v>
+        <v>0.9593181818181816</v>
       </c>
     </row>
     <row r="1517" spans="1:2">
@@ -12522,7 +12522,7 @@
         <v>36580</v>
       </c>
       <c r="B1517">
-        <v>0.001</v>
+        <v>0.9430416666666664</v>
       </c>
     </row>
     <row r="1518" spans="1:2">
@@ -12530,7 +12530,7 @@
         <v>36581</v>
       </c>
       <c r="B1518">
-        <v>0.001</v>
+        <v>0.9433333333333332</v>
       </c>
     </row>
     <row r="1519" spans="1:2">
@@ -12538,7 +12538,7 @@
         <v>36582</v>
       </c>
       <c r="B1519">
-        <v>0.001</v>
+        <v>0.8870833333333334</v>
       </c>
     </row>
     <row r="1520" spans="1:2">
@@ -12546,7 +12546,7 @@
         <v>36583</v>
       </c>
       <c r="B1520">
-        <v>0.001</v>
+        <v>0.9362916666666666</v>
       </c>
     </row>
     <row r="1521" spans="1:2">
@@ -12554,7 +12554,7 @@
         <v>36584</v>
       </c>
       <c r="B1521">
-        <v>0.001</v>
+        <v>0.94375</v>
       </c>
     </row>
     <row r="1522" spans="1:2">
@@ -12562,7 +12562,7 @@
         <v>36585</v>
       </c>
       <c r="B1522">
-        <v>0.001</v>
+        <v>0.9422916666666669</v>
       </c>
     </row>
     <row r="1523" spans="1:2">
@@ -12570,7 +12570,7 @@
         <v>36586</v>
       </c>
       <c r="B1523">
-        <v>0.001</v>
+        <v>0.9520833333333338</v>
       </c>
     </row>
     <row r="1524" spans="1:2">
@@ -12578,7 +12578,7 @@
         <v>36587</v>
       </c>
       <c r="B1524">
-        <v>0.001</v>
+        <v>0.950333333333333</v>
       </c>
     </row>
     <row r="1525" spans="1:2">
@@ -12586,7 +12586,7 @@
         <v>36588</v>
       </c>
       <c r="B1525">
-        <v>0.001</v>
+        <v>0.9478333333333332</v>
       </c>
     </row>
     <row r="1526" spans="1:2">
@@ -12594,7 +12594,7 @@
         <v>36589</v>
       </c>
       <c r="B1526">
-        <v>0.001</v>
+        <v>0.9567500000000001</v>
       </c>
     </row>
     <row r="1527" spans="1:2">
@@ -12602,7 +12602,7 @@
         <v>36590</v>
       </c>
       <c r="B1527">
-        <v>0.001</v>
+        <v>0.9594583333333331</v>
       </c>
     </row>
     <row r="1528" spans="1:2">
@@ -12610,7 +12610,7 @@
         <v>36591</v>
       </c>
       <c r="B1528">
-        <v>0.001</v>
+        <v>0.9442083333333335</v>
       </c>
     </row>
     <row r="1529" spans="1:2">
@@ -12618,7 +12618,7 @@
         <v>36592</v>
       </c>
       <c r="B1529">
-        <v>0.001</v>
+        <v>0.9435416666666669</v>
       </c>
     </row>
     <row r="1530" spans="1:2">
@@ -12626,7 +12626,7 @@
         <v>36593</v>
       </c>
       <c r="B1530">
-        <v>0.001</v>
+        <v>0.9520416666666672</v>
       </c>
     </row>
     <row r="1531" spans="1:2">
@@ -12634,7 +12634,7 @@
         <v>36594</v>
       </c>
       <c r="B1531">
-        <v>0.001</v>
+        <v>0.6721250000000002</v>
       </c>
     </row>
     <row r="1532" spans="1:2">
@@ -12642,7 +12642,7 @@
         <v>36595</v>
       </c>
       <c r="B1532">
-        <v>0.001</v>
+        <v>0.005416666666666669</v>
       </c>
     </row>
     <row r="1533" spans="1:2">
@@ -12650,7 +12650,7 @@
         <v>36596</v>
       </c>
       <c r="B1533">
-        <v>0.001</v>
+        <v>0.146875</v>
       </c>
     </row>
     <row r="1534" spans="1:2">
@@ -12658,7 +12658,7 @@
         <v>36597</v>
       </c>
       <c r="B1534">
-        <v>0.001</v>
+        <v>0.9297916666666669</v>
       </c>
     </row>
     <row r="1535" spans="1:2">
@@ -12666,7 +12666,7 @@
         <v>36598</v>
       </c>
       <c r="B1535">
-        <v>0.001</v>
+        <v>0.9453333333333335</v>
       </c>
     </row>
     <row r="1536" spans="1:2">
@@ -12674,7 +12674,7 @@
         <v>36599</v>
       </c>
       <c r="B1536">
-        <v>0.001</v>
+        <v>0.9391666666666666</v>
       </c>
     </row>
     <row r="1537" spans="1:2">
@@ -12682,7 +12682,7 @@
         <v>36600</v>
       </c>
       <c r="B1537">
-        <v>0.001</v>
+        <v>0.9459166666666672</v>
       </c>
     </row>
     <row r="1538" spans="1:2">
@@ -12690,7 +12690,7 @@
         <v>36601</v>
       </c>
       <c r="B1538">
-        <v>0.001</v>
+        <v>0.9402916666666669</v>
       </c>
     </row>
     <row r="1539" spans="1:2">
@@ -12698,7 +12698,7 @@
         <v>36602</v>
       </c>
       <c r="B1539">
-        <v>0.001</v>
+        <v>0.9393749999999997</v>
       </c>
     </row>
     <row r="1540" spans="1:2">
@@ -12706,7 +12706,7 @@
         <v>36603</v>
       </c>
       <c r="B1540">
-        <v>0.001</v>
+        <v>0.9447500000000001</v>
       </c>
     </row>
     <row r="1541" spans="1:2">
@@ -12714,7 +12714,7 @@
         <v>36604</v>
       </c>
       <c r="B1541">
-        <v>0.001</v>
+        <v>0.9444583333333335</v>
       </c>
     </row>
     <row r="1542" spans="1:2">
@@ -12722,7 +12722,7 @@
         <v>36605</v>
       </c>
       <c r="B1542">
-        <v>0.001</v>
+        <v>0.9355000000000002</v>
       </c>
     </row>
     <row r="1543" spans="1:2">
@@ -12730,7 +12730,7 @@
         <v>36606</v>
       </c>
       <c r="B1543">
-        <v>0.001</v>
+        <v>0.9369166666666667</v>
       </c>
     </row>
     <row r="1544" spans="1:2">
@@ -12738,7 +12738,7 @@
         <v>36607</v>
       </c>
       <c r="B1544">
-        <v>0.001</v>
+        <v>0.9496250000000002</v>
       </c>
     </row>
     <row r="1545" spans="1:2">
@@ -12746,7 +12746,7 @@
         <v>36608</v>
       </c>
       <c r="B1545">
-        <v>0.001</v>
+        <v>0.9409166666666668</v>
       </c>
     </row>
     <row r="1546" spans="1:2">
@@ -12754,7 +12754,7 @@
         <v>36609</v>
       </c>
       <c r="B1546">
-        <v>0.001</v>
+        <v>0.9376249999999998</v>
       </c>
     </row>
     <row r="1547" spans="1:2">
@@ -12762,7 +12762,7 @@
         <v>36610</v>
       </c>
       <c r="B1547">
-        <v>0.001</v>
+        <v>0.9468333333333329</v>
       </c>
     </row>
     <row r="1548" spans="1:2">
@@ -12770,7 +12770,7 @@
         <v>36611</v>
       </c>
       <c r="B1548">
-        <v>0.001</v>
+        <v>0.9420416666666669</v>
       </c>
     </row>
     <row r="1549" spans="1:2">
@@ -12778,7 +12778,7 @@
         <v>36612</v>
       </c>
       <c r="B1549">
-        <v>0.001</v>
+        <v>0.9412083333333331</v>
       </c>
     </row>
     <row r="1550" spans="1:2">
@@ -12786,7 +12786,7 @@
         <v>36613</v>
       </c>
       <c r="B1550">
-        <v>0.001</v>
+        <v>0.9418333333333336</v>
       </c>
     </row>
     <row r="1551" spans="1:2">
@@ -12794,7 +12794,7 @@
         <v>36614</v>
       </c>
       <c r="B1551">
-        <v>0.001</v>
+        <v>0.9482142857142858</v>
       </c>
     </row>
     <row r="1552" spans="1:2">
@@ -12802,7 +12802,7 @@
         <v>36615</v>
       </c>
       <c r="B1552">
-        <v>0.001</v>
+        <v>0.9482142857142858</v>
       </c>
     </row>
     <row r="1553" spans="1:2">
@@ -12810,7 +12810,7 @@
         <v>36616</v>
       </c>
       <c r="B1553">
-        <v>0.001</v>
+        <v>0.9482142857142858</v>
       </c>
     </row>
     <row r="1554" spans="1:2">
@@ -12818,7 +12818,7 @@
         <v>36617</v>
       </c>
       <c r="B1554">
-        <v>0.001</v>
+        <v>0.9482142857142858</v>
       </c>
     </row>
     <row r="1555" spans="1:2">
@@ -12826,7 +12826,7 @@
         <v>36618</v>
       </c>
       <c r="B1555">
-        <v>0.001</v>
+        <v>0.9510000000000001</v>
       </c>
     </row>
     <row r="1556" spans="1:2">
@@ -12834,7 +12834,7 @@
         <v>36619</v>
       </c>
       <c r="B1556">
-        <v>0.001</v>
+        <v>0.9487692307692307</v>
       </c>
     </row>
     <row r="1557" spans="1:2">
@@ -12842,7 +12842,7 @@
         <v>36620</v>
       </c>
       <c r="B1557">
-        <v>0.001</v>
+        <v>0.9446249999999998</v>
       </c>
     </row>
     <row r="1558" spans="1:2">
@@ -12850,7 +12850,7 @@
         <v>36621</v>
       </c>
       <c r="B1558">
-        <v>0.001</v>
+        <v>0.9446250000000003</v>
       </c>
     </row>
     <row r="1559" spans="1:2">
@@ -12858,7 +12858,7 @@
         <v>36622</v>
       </c>
       <c r="B1559">
-        <v>0.001</v>
+        <v>0.9359583333333333</v>
       </c>
     </row>
     <row r="1560" spans="1:2">
@@ -12866,7 +12866,7 @@
         <v>36623</v>
       </c>
       <c r="B1560">
-        <v>0.001</v>
+        <v>0.9433333333333335</v>
       </c>
     </row>
     <row r="1561" spans="1:2">
@@ -12874,7 +12874,7 @@
         <v>36624</v>
       </c>
       <c r="B1561">
-        <v>0.001</v>
+        <v>0.9487083333333337</v>
       </c>
     </row>
     <row r="1562" spans="1:2">
@@ -12882,7 +12882,7 @@
         <v>36625</v>
       </c>
       <c r="B1562">
-        <v>0.001</v>
+        <v>0.9465416666666667</v>
       </c>
     </row>
     <row r="1563" spans="1:2">
@@ -12890,7 +12890,7 @@
         <v>36626</v>
       </c>
       <c r="B1563">
-        <v>0.001</v>
+        <v>0.9369999999999995</v>
       </c>
     </row>
     <row r="1564" spans="1:2">
@@ -12898,7 +12898,7 @@
         <v>36627</v>
       </c>
       <c r="B1564">
-        <v>0.001</v>
+        <v>0.9441249999999998</v>
       </c>
     </row>
     <row r="1565" spans="1:2">
@@ -12906,7 +12906,7 @@
         <v>36628</v>
       </c>
       <c r="B1565">
-        <v>0.001</v>
+        <v>0.9501666666666663</v>
       </c>
     </row>
     <row r="1566" spans="1:2">
@@ -12914,7 +12914,7 @@
         <v>36629</v>
       </c>
       <c r="B1566">
-        <v>0.001</v>
+        <v>0.942333333333333</v>
       </c>
     </row>
     <row r="1567" spans="1:2">
@@ -12922,7 +12922,7 @@
         <v>36630</v>
       </c>
       <c r="B1567">
-        <v>0.001</v>
+        <v>0.9412916666666665</v>
       </c>
     </row>
     <row r="1568" spans="1:2">
@@ -12930,7 +12930,7 @@
         <v>36631</v>
       </c>
       <c r="B1568">
-        <v>0.001</v>
+        <v>0.9440416666666667</v>
       </c>
     </row>
     <row r="1569" spans="1:2">
@@ -12938,7 +12938,7 @@
         <v>36632</v>
       </c>
       <c r="B1569">
-        <v>0.001</v>
+        <v>0.944</v>
       </c>
     </row>
     <row r="1570" spans="1:2">
@@ -12946,7 +12946,7 @@
         <v>36633</v>
       </c>
       <c r="B1570">
-        <v>0.001</v>
+        <v>0.9333750000000002</v>
       </c>
     </row>
     <row r="1571" spans="1:2">
@@ -12954,7 +12954,7 @@
         <v>36634</v>
       </c>
       <c r="B1571">
-        <v>0.001</v>
+        <v>0.9401249999999998</v>
       </c>
     </row>
     <row r="1572" spans="1:2">
@@ -12962,7 +12962,7 @@
         <v>36635</v>
       </c>
       <c r="B1572">
-        <v>0.001</v>
+        <v>0.9477083333333334</v>
       </c>
     </row>
     <row r="1573" spans="1:2">
@@ -12970,7 +12970,7 @@
         <v>36636</v>
       </c>
       <c r="B1573">
-        <v>0.001</v>
+        <v>0.9393750000000002</v>
       </c>
     </row>
     <row r="1574" spans="1:2">
@@ -12978,7 +12978,7 @@
         <v>36637</v>
       </c>
       <c r="B1574">
-        <v>0.001</v>
+        <v>0.9451250000000003</v>
       </c>
     </row>
     <row r="1575" spans="1:2">
@@ -12986,7 +12986,7 @@
         <v>36638</v>
       </c>
       <c r="B1575">
-        <v>0.001</v>
+        <v>0.9460000000000003</v>
       </c>
     </row>
     <row r="1576" spans="1:2">
@@ -12994,7 +12994,7 @@
         <v>36639</v>
       </c>
       <c r="B1576">
-        <v>0.001</v>
+        <v>0.9460000000000003</v>
       </c>
     </row>
     <row r="1577" spans="1:2">
@@ -13002,7 +13002,7 @@
         <v>36640</v>
       </c>
       <c r="B1577">
-        <v>0.001</v>
+        <v>0.9339583333333333</v>
       </c>
     </row>
     <row r="1578" spans="1:2">
@@ -13010,7 +13010,7 @@
         <v>36641</v>
       </c>
       <c r="B1578">
-        <v>0.001</v>
+        <v>0.9276666666666663</v>
       </c>
     </row>
     <row r="1579" spans="1:2">
@@ -13018,7 +13018,7 @@
         <v>36642</v>
       </c>
       <c r="B1579">
-        <v>0.001</v>
+        <v>0.9393333333333335</v>
       </c>
     </row>
     <row r="1580" spans="1:2">
@@ -13026,7 +13026,7 @@
         <v>36643</v>
       </c>
       <c r="B1580">
-        <v>0.001</v>
+        <v>0.9336666666666665</v>
       </c>
     </row>
     <row r="1581" spans="1:2">
@@ -13034,7 +13034,7 @@
         <v>36644</v>
       </c>
       <c r="B1581">
-        <v>0.001</v>
+        <v>0.9451249999999997</v>
       </c>
     </row>
     <row r="1582" spans="1:2">
@@ -13042,7 +13042,7 @@
         <v>36645</v>
       </c>
       <c r="B1582">
-        <v>0.001</v>
+        <v>0.9466666666666671</v>
       </c>
     </row>
     <row r="1583" spans="1:2">
@@ -13050,7 +13050,7 @@
         <v>36646</v>
       </c>
       <c r="B1583">
-        <v>0.001</v>
+        <v>0.9460416666666669</v>
       </c>
     </row>
     <row r="1584" spans="1:2">
@@ -13058,7 +13058,7 @@
         <v>36647</v>
       </c>
       <c r="B1584">
-        <v>0.001</v>
+        <v>0.9362631578947366</v>
       </c>
     </row>
     <row r="1585" spans="1:2">
@@ -13066,7 +13066,7 @@
         <v>36648</v>
       </c>
       <c r="B1585">
-        <v>0.001</v>
+        <v>0.9376956521739129</v>
       </c>
     </row>
     <row r="1586" spans="1:2">
@@ -13074,7 +13074,7 @@
         <v>36649</v>
       </c>
       <c r="B1586">
-        <v>0.001</v>
+        <v>0.9441250000000001</v>
       </c>
     </row>
     <row r="1587" spans="1:2">
@@ -13082,7 +13082,7 @@
         <v>36650</v>
       </c>
       <c r="B1587">
-        <v>0.001</v>
+        <v>0.9317916666666668</v>
       </c>
     </row>
     <row r="1588" spans="1:2">
@@ -13090,7 +13090,7 @@
         <v>36651</v>
       </c>
       <c r="B1588">
-        <v>0.001</v>
+        <v>0.9337083333333335</v>
       </c>
     </row>
     <row r="1589" spans="1:2">
@@ -13098,7 +13098,7 @@
         <v>36652</v>
       </c>
       <c r="B1589">
-        <v>0.001</v>
+        <v>0.9460833333333331</v>
       </c>
     </row>
     <row r="1590" spans="1:2">
@@ -13106,7 +13106,7 @@
         <v>36653</v>
       </c>
       <c r="B1590">
-        <v>0.001</v>
+        <v>0.9468749999999995</v>
       </c>
     </row>
     <row r="1591" spans="1:2">
@@ -13114,7 +13114,7 @@
         <v>36654</v>
       </c>
       <c r="B1591">
-        <v>0.001</v>
+        <v>0.9372499999999996</v>
       </c>
     </row>
     <row r="1592" spans="1:2">
@@ -13122,7 +13122,7 @@
         <v>36655</v>
       </c>
       <c r="B1592">
-        <v>0.001</v>
+        <v>0.9445416666666668</v>
       </c>
     </row>
     <row r="1593" spans="1:2">
@@ -13130,7 +13130,7 @@
         <v>36656</v>
       </c>
       <c r="B1593">
-        <v>0.001</v>
+        <v>0.9477083333333335</v>
       </c>
     </row>
     <row r="1594" spans="1:2">
@@ -13138,7 +13138,7 @@
         <v>36657</v>
       </c>
       <c r="B1594">
-        <v>0.001</v>
+        <v>0.9513750000000002</v>
       </c>
     </row>
     <row r="1595" spans="1:2">
@@ -13146,7 +13146,7 @@
         <v>36658</v>
       </c>
       <c r="B1595">
-        <v>0.001</v>
+        <v>0.947333333333333</v>
       </c>
     </row>
     <row r="1596" spans="1:2">
@@ -13154,7 +13154,7 @@
         <v>36659</v>
       </c>
       <c r="B1596">
-        <v>0.001</v>
+        <v>0.9469999999999995</v>
       </c>
     </row>
     <row r="1597" spans="1:2">
@@ -13162,7 +13162,7 @@
         <v>36660</v>
       </c>
       <c r="B1597">
-        <v>0.001</v>
+        <v>0.9449583333333335</v>
       </c>
     </row>
     <row r="1598" spans="1:2">
@@ -13170,7 +13170,7 @@
         <v>36661</v>
       </c>
       <c r="B1598">
-        <v>0.001</v>
+        <v>0.9418333333333334</v>
       </c>
     </row>
     <row r="1599" spans="1:2">
@@ -13178,7 +13178,7 @@
         <v>36662</v>
       </c>
       <c r="B1599">
-        <v>0.001</v>
+        <v>0.9359999999999996</v>
       </c>
     </row>
     <row r="1600" spans="1:2">
@@ -13186,7 +13186,7 @@
         <v>36663</v>
       </c>
       <c r="B1600">
-        <v>0.001</v>
+        <v>0.943916666666667</v>
       </c>
     </row>
     <row r="1601" spans="1:2">
@@ -13194,7 +13194,7 @@
         <v>36664</v>
       </c>
       <c r="B1601">
-        <v>0.001</v>
+        <v>0.9312916666666666</v>
       </c>
     </row>
     <row r="1602" spans="1:2">
@@ -13202,7 +13202,7 @@
         <v>36665</v>
       </c>
       <c r="B1602">
-        <v>0.001</v>
+        <v>0.9362916666666664</v>
       </c>
     </row>
     <row r="1603" spans="1:2">
@@ -13210,7 +13210,7 @@
         <v>36666</v>
       </c>
       <c r="B1603">
-        <v>0.001</v>
+        <v>0.9411250000000001</v>
       </c>
     </row>
     <row r="1604" spans="1:2">
@@ -13218,7 +13218,7 @@
         <v>36667</v>
       </c>
       <c r="B1604">
-        <v>0.001</v>
+        <v>0.9440416666666667</v>
       </c>
     </row>
     <row r="1605" spans="1:2">
@@ -13226,7 +13226,7 @@
         <v>36668</v>
       </c>
       <c r="B1605">
-        <v>0.001</v>
+        <v>0.9420000000000001</v>
       </c>
     </row>
     <row r="1606" spans="1:2">
@@ -13234,7 +13234,7 @@
         <v>36669</v>
       </c>
       <c r="B1606">
-        <v>0.001</v>
+        <v>0.9368749999999998</v>
       </c>
     </row>
     <row r="1607" spans="1:2">
@@ -13242,7 +13242,7 @@
         <v>36670</v>
       </c>
       <c r="B1607">
-        <v>0.001</v>
+        <v>0.94325</v>
       </c>
     </row>
     <row r="1608" spans="1:2">
@@ -13250,7 +13250,7 @@
         <v>36671</v>
       </c>
       <c r="B1608">
-        <v>0.001</v>
+        <v>0.9407916666666668</v>
       </c>
     </row>
     <row r="1609" spans="1:2">
@@ -13258,7 +13258,7 @@
         <v>36672</v>
       </c>
       <c r="B1609">
-        <v>0.001</v>
+        <v>0.9474583333333334</v>
       </c>
     </row>
     <row r="1610" spans="1:2">
@@ -13266,7 +13266,7 @@
         <v>36673</v>
       </c>
       <c r="B1610">
-        <v>0.001</v>
+        <v>0.949291666666667</v>
       </c>
     </row>
     <row r="1611" spans="1:2">
@@ -13274,7 +13274,7 @@
         <v>36674</v>
       </c>
       <c r="B1611">
-        <v>0.001</v>
+        <v>0.9467083333333335</v>
       </c>
     </row>
     <row r="1612" spans="1:2">
@@ -13282,7 +13282,7 @@
         <v>36675</v>
       </c>
       <c r="B1612">
-        <v>0.001</v>
+        <v>0.9386666666666666</v>
       </c>
     </row>
     <row r="1613" spans="1:2">
@@ -13290,7 +13290,7 @@
         <v>36676</v>
       </c>
       <c r="B1613">
-        <v>0.001</v>
+        <v>0.9316666666666666</v>
       </c>
     </row>
     <row r="1614" spans="1:2">
@@ -13298,7 +13298,7 @@
         <v>36677</v>
       </c>
       <c r="B1614">
-        <v>0.001</v>
+        <v>0.9463333333333338</v>
       </c>
     </row>
     <row r="1615" spans="1:2">
@@ -13306,7 +13306,7 @@
         <v>36678</v>
       </c>
       <c r="B1615">
-        <v>0.001</v>
+        <v>0.9464583333333333</v>
       </c>
     </row>
     <row r="1616" spans="1:2">
@@ -13314,7 +13314,7 @@
         <v>36679</v>
       </c>
       <c r="B1616">
-        <v>0.001</v>
+        <v>0.9394166666666667</v>
       </c>
     </row>
     <row r="1617" spans="1:2">
@@ -13322,7 +13322,7 @@
         <v>36680</v>
       </c>
       <c r="B1617">
-        <v>0.001</v>
+        <v>0.9400000000000001</v>
       </c>
     </row>
     <row r="1618" spans="1:2">
@@ -13330,7 +13330,7 @@
         <v>36681</v>
       </c>
       <c r="B1618">
-        <v>0.001</v>
+        <v>0.9363333333333332</v>
       </c>
     </row>
     <row r="1619" spans="1:2">
@@ -13338,7 +13338,7 @@
         <v>36682</v>
       </c>
       <c r="B1619">
-        <v>0.001</v>
+        <v>0.9398750000000001</v>
       </c>
     </row>
     <row r="1620" spans="1:2">
@@ -13346,7 +13346,7 @@
         <v>36683</v>
       </c>
       <c r="B1620">
-        <v>0.001</v>
+        <v>0.935083333333333</v>
       </c>
     </row>
     <row r="1621" spans="1:2">
@@ -13354,7 +13354,7 @@
         <v>36684</v>
       </c>
       <c r="B1621">
-        <v>0.001</v>
+        <v>0.9436666666666662</v>
       </c>
     </row>
     <row r="1622" spans="1:2">
@@ -13362,7 +13362,7 @@
         <v>36685</v>
       </c>
       <c r="B1622">
-        <v>0.001</v>
+        <v>0.9415833333333338</v>
       </c>
     </row>
     <row r="1623" spans="1:2">
@@ -13370,7 +13370,7 @@
         <v>36686</v>
       </c>
       <c r="B1623">
-        <v>0.001</v>
+        <v>0.9436250000000004</v>
       </c>
     </row>
     <row r="1624" spans="1:2">
@@ -13378,7 +13378,7 @@
         <v>36687</v>
       </c>
       <c r="B1624">
-        <v>0.001</v>
+        <v>0.9461250000000002</v>
       </c>
     </row>
     <row r="1625" spans="1:2">
@@ -13386,7 +13386,7 @@
         <v>36688</v>
       </c>
       <c r="B1625">
-        <v>0.001</v>
+        <v>0.9470833333333334</v>
       </c>
     </row>
     <row r="1626" spans="1:2">
@@ -13394,7 +13394,7 @@
         <v>36689</v>
       </c>
       <c r="B1626">
-        <v>0.001</v>
+        <v>0.9366249999999999</v>
       </c>
     </row>
     <row r="1627" spans="1:2">
@@ -13402,7 +13402,7 @@
         <v>36690</v>
       </c>
       <c r="B1627">
-        <v>0.001</v>
+        <v>0.9350000000000001</v>
       </c>
     </row>
     <row r="1628" spans="1:2">
@@ -13410,7 +13410,7 @@
         <v>36691</v>
       </c>
       <c r="B1628">
-        <v>0.001</v>
+        <v>0.9460416666666666</v>
       </c>
     </row>
     <row r="1629" spans="1:2">
@@ -13418,7 +13418,7 @@
         <v>36692</v>
       </c>
       <c r="B1629">
-        <v>0.001</v>
+        <v>0.9415833333333335</v>
       </c>
     </row>
     <row r="1630" spans="1:2">
@@ -13426,7 +13426,7 @@
         <v>36693</v>
       </c>
       <c r="B1630">
-        <v>0.001</v>
+        <v>0.9394583333333334</v>
       </c>
     </row>
     <row r="1631" spans="1:2">
@@ -13434,7 +13434,7 @@
         <v>36694</v>
       </c>
       <c r="B1631">
-        <v>0.001</v>
+        <v>0.9458750000000004</v>
       </c>
     </row>
     <row r="1632" spans="1:2">
@@ -13442,7 +13442,7 @@
         <v>36695</v>
       </c>
       <c r="B1632">
-        <v>0.001</v>
+        <v>0.9457083333333335</v>
       </c>
     </row>
     <row r="1633" spans="1:2">
@@ -13450,7 +13450,7 @@
         <v>36696</v>
       </c>
       <c r="B1633">
-        <v>0.001</v>
+        <v>0.9477500000000001</v>
       </c>
     </row>
     <row r="1634" spans="1:2">
@@ -13458,7 +13458,7 @@
         <v>36697</v>
       </c>
       <c r="B1634">
-        <v>0.001</v>
+        <v>0.9467499999999998</v>
       </c>
     </row>
     <row r="1635" spans="1:2">
@@ -13466,7 +13466,7 @@
         <v>36698</v>
       </c>
       <c r="B1635">
-        <v>0.001</v>
+        <v>0.9499166666666664</v>
       </c>
     </row>
     <row r="1636" spans="1:2">
@@ -13474,7 +13474,7 @@
         <v>36699</v>
       </c>
       <c r="B1636">
-        <v>0.001</v>
+        <v>0.94125</v>
       </c>
     </row>
     <row r="1637" spans="1:2">
@@ -13482,7 +13482,7 @@
         <v>36700</v>
       </c>
       <c r="B1637">
-        <v>0.001</v>
+        <v>0.9399583333333332</v>
       </c>
     </row>
     <row r="1638" spans="1:2">
@@ -13490,7 +13490,7 @@
         <v>36701</v>
       </c>
       <c r="B1638">
-        <v>0.001</v>
+        <v>0.9495416666666668</v>
       </c>
     </row>
     <row r="1639" spans="1:2">
@@ -13498,7 +13498,7 @@
         <v>36702</v>
       </c>
       <c r="B1639">
-        <v>0.001</v>
+        <v>0.9485416666666668</v>
       </c>
     </row>
     <row r="1640" spans="1:2">
@@ -13506,7 +13506,7 @@
         <v>36703</v>
       </c>
       <c r="B1640">
-        <v>0.001</v>
+        <v>0.9416666666666665</v>
       </c>
     </row>
     <row r="1641" spans="1:2">
@@ -13514,7 +13514,7 @@
         <v>36704</v>
       </c>
       <c r="B1641">
-        <v>0.001</v>
+        <v>0.9329999999999999</v>
       </c>
     </row>
     <row r="1642" spans="1:2">
@@ -13522,7 +13522,7 @@
         <v>36705</v>
       </c>
       <c r="B1642">
-        <v>0.001</v>
+        <v>0.9501250000000004</v>
       </c>
     </row>
     <row r="1643" spans="1:2">
@@ -13530,7 +13530,7 @@
         <v>36706</v>
       </c>
       <c r="B1643">
-        <v>0.001</v>
+        <v>0.9347916666666664</v>
       </c>
     </row>
     <row r="1644" spans="1:2">
@@ -13538,7 +13538,7 @@
         <v>36707</v>
       </c>
       <c r="B1644">
-        <v>0.001</v>
+        <v>0.9368750000000005</v>
       </c>
     </row>
     <row r="1645" spans="1:2">
@@ -13546,7 +13546,7 @@
         <v>36708</v>
       </c>
       <c r="B1645">
-        <v>0.001</v>
+        <v>0.9399583333333333</v>
       </c>
     </row>
     <row r="1646" spans="1:2">
@@ -13554,7 +13554,7 @@
         <v>36709</v>
       </c>
       <c r="B1646">
-        <v>0.001</v>
+        <v>0.9399583333333333</v>
       </c>
     </row>
     <row r="1647" spans="1:2">
@@ -13562,7 +13562,7 @@
         <v>36710</v>
       </c>
       <c r="B1647">
-        <v>0.001</v>
+        <v>0.9417500000000002</v>
       </c>
     </row>
     <row r="1648" spans="1:2">
@@ -13570,7 +13570,7 @@
         <v>36711</v>
       </c>
       <c r="B1648">
-        <v>0.001</v>
+        <v>0.9424583333333337</v>
       </c>
     </row>
     <row r="1649" spans="1:2">
@@ -13578,7 +13578,7 @@
         <v>36712</v>
       </c>
       <c r="B1649">
-        <v>0.001</v>
+        <v>0.9437916666666667</v>
       </c>
     </row>
     <row r="1650" spans="1:2">
@@ -13586,7 +13586,7 @@
         <v>36713</v>
       </c>
       <c r="B1650">
-        <v>0.001</v>
+        <v>0.9450416666666669</v>
       </c>
     </row>
     <row r="1651" spans="1:2">
@@ -13594,7 +13594,7 @@
         <v>36714</v>
       </c>
       <c r="B1651">
-        <v>0.001</v>
+        <v>0.9408333333333337</v>
       </c>
     </row>
     <row r="1652" spans="1:2">
@@ -13602,7 +13602,7 @@
         <v>36715</v>
       </c>
       <c r="B1652">
-        <v>0.001</v>
+        <v>0.948583333333333</v>
       </c>
     </row>
     <row r="1653" spans="1:2">
@@ -13610,7 +13610,7 @@
         <v>36716</v>
       </c>
       <c r="B1653">
-        <v>0.001</v>
+        <v>0.940291666666667</v>
       </c>
     </row>
     <row r="1654" spans="1:2">
@@ -13618,7 +13618,7 @@
         <v>36717</v>
       </c>
       <c r="B1654">
-        <v>0.001</v>
+        <v>0.9397916666666667</v>
       </c>
     </row>
     <row r="1655" spans="1:2">
@@ -13626,7 +13626,7 @@
         <v>36718</v>
       </c>
       <c r="B1655">
-        <v>0.001</v>
+        <v>0.9392916666666666</v>
       </c>
     </row>
     <row r="1656" spans="1:2">
@@ -13634,7 +13634,7 @@
         <v>36719</v>
       </c>
       <c r="B1656">
-        <v>0.001</v>
+        <v>0.9490416666666669</v>
       </c>
     </row>
     <row r="1657" spans="1:2">
@@ -13642,7 +13642,7 @@
         <v>36720</v>
       </c>
       <c r="B1657">
-        <v>0.001</v>
+        <v>0.9372500000000001</v>
       </c>
     </row>
     <row r="1658" spans="1:2">
@@ -13650,7 +13650,7 @@
         <v>36721</v>
       </c>
       <c r="B1658">
-        <v>0.001</v>
+        <v>0.9336666666666669</v>
       </c>
     </row>
     <row r="1659" spans="1:2">
@@ -13658,7 +13658,7 @@
         <v>36722</v>
       </c>
       <c r="B1659">
-        <v>0.001</v>
+        <v>0.9460000000000003</v>
       </c>
     </row>
     <row r="1660" spans="1:2">
@@ -13666,7 +13666,7 @@
         <v>36723</v>
       </c>
       <c r="B1660">
-        <v>0.001</v>
+        <v>0.9460000000000003</v>
       </c>
     </row>
     <row r="1661" spans="1:2">
@@ -13674,7 +13674,7 @@
         <v>36724</v>
       </c>
       <c r="B1661">
-        <v>0.001</v>
+        <v>0.9334166666666667</v>
       </c>
     </row>
     <row r="1662" spans="1:2">
@@ -13682,7 +13682,7 @@
         <v>36725</v>
       </c>
       <c r="B1662">
-        <v>0.001</v>
+        <v>0.9376666666666668</v>
       </c>
     </row>
     <row r="1663" spans="1:2">
@@ -13690,7 +13690,7 @@
         <v>36726</v>
       </c>
       <c r="B1663">
-        <v>0.001</v>
+        <v>0.9440000000000004</v>
       </c>
     </row>
     <row r="1664" spans="1:2">
@@ -13698,7 +13698,7 @@
         <v>36727</v>
       </c>
       <c r="B1664">
-        <v>0.001</v>
+        <v>0.9374166666666667</v>
       </c>
     </row>
     <row r="1665" spans="1:2">
@@ -13706,7 +13706,7 @@
         <v>36728</v>
       </c>
       <c r="B1665">
-        <v>0.001</v>
+        <v>0.9402500000000003</v>
       </c>
     </row>
     <row r="1666" spans="1:2">
@@ -13714,7 +13714,7 @@
         <v>36729</v>
       </c>
       <c r="B1666">
-        <v>0.001</v>
+        <v>0.9455833333333333</v>
       </c>
     </row>
     <row r="1667" spans="1:2">
@@ -13722,7 +13722,7 @@
         <v>36730</v>
       </c>
       <c r="B1667">
-        <v>0.001</v>
+        <v>0.9437500000000002</v>
       </c>
     </row>
     <row r="1668" spans="1:2">
@@ -13730,7 +13730,7 @@
         <v>36731</v>
       </c>
       <c r="B1668">
-        <v>0.001</v>
+        <v>0.9323750000000001</v>
       </c>
     </row>
     <row r="1669" spans="1:2">
@@ -13738,7 +13738,7 @@
         <v>36732</v>
       </c>
       <c r="B1669">
-        <v>0.001</v>
+        <v>0.9302499999999999</v>
       </c>
     </row>
     <row r="1670" spans="1:2">
@@ -13746,7 +13746,7 @@
         <v>36733</v>
       </c>
       <c r="B1670">
-        <v>0.001</v>
+        <v>0.940875</v>
       </c>
     </row>
     <row r="1671" spans="1:2">
@@ -13754,7 +13754,7 @@
         <v>36734</v>
       </c>
       <c r="B1671">
-        <v>0.001</v>
+        <v>0.9349999999999997</v>
       </c>
     </row>
     <row r="1672" spans="1:2">
@@ -13762,7 +13762,7 @@
         <v>36735</v>
       </c>
       <c r="B1672">
-        <v>0.001</v>
+        <v>0.9322916666666664</v>
       </c>
     </row>
     <row r="1673" spans="1:2">
@@ -13770,7 +13770,7 @@
         <v>36736</v>
       </c>
       <c r="B1673">
-        <v>0.001</v>
+        <v>0.9392083333333333</v>
       </c>
     </row>
     <row r="1674" spans="1:2">
@@ -13778,7 +13778,7 @@
         <v>36737</v>
       </c>
       <c r="B1674">
-        <v>0.001</v>
+        <v>0.93825</v>
       </c>
     </row>
     <row r="1675" spans="1:2">
@@ -13786,7 +13786,7 @@
         <v>36738</v>
       </c>
       <c r="B1675">
-        <v>0.001</v>
+        <v>0.936416666666667</v>
       </c>
     </row>
     <row r="1676" spans="1:2">
@@ -13794,7 +13794,7 @@
         <v>36739</v>
       </c>
       <c r="B1676">
-        <v>0.001</v>
+        <v>0.9423333333333334</v>
       </c>
     </row>
     <row r="1677" spans="1:2">
@@ -13802,7 +13802,7 @@
         <v>36740</v>
       </c>
       <c r="B1677">
-        <v>0.001</v>
+        <v>0.9473749999999995</v>
       </c>
     </row>
     <row r="1678" spans="1:2">
@@ -13810,7 +13810,7 @@
         <v>36741</v>
       </c>
       <c r="B1678">
-        <v>0.001</v>
+        <v>0.9384166666666668</v>
       </c>
     </row>
     <row r="1679" spans="1:2">
@@ -13818,7 +13818,7 @@
         <v>36742</v>
       </c>
       <c r="B1679">
-        <v>0.001</v>
+        <v>0.9318749999999999</v>
       </c>
     </row>
     <row r="1680" spans="1:2">
@@ -13826,7 +13826,7 @@
         <v>36743</v>
       </c>
       <c r="B1680">
-        <v>0.001</v>
+        <v>0.93775</v>
       </c>
     </row>
     <row r="1681" spans="1:2">
@@ -13834,7 +13834,7 @@
         <v>36744</v>
       </c>
       <c r="B1681">
-        <v>0.001</v>
+        <v>0.9398749999999999</v>
       </c>
     </row>
     <row r="1682" spans="1:2">
@@ -13842,7 +13842,7 @@
         <v>36745</v>
       </c>
       <c r="B1682">
-        <v>0.001</v>
+        <v>0.9335000000000001</v>
       </c>
     </row>
     <row r="1683" spans="1:2">
@@ -13850,7 +13850,7 @@
         <v>36746</v>
       </c>
       <c r="B1683">
-        <v>0.001</v>
+        <v>0.9334166666666667</v>
       </c>
     </row>
     <row r="1684" spans="1:2">
@@ -13858,7 +13858,7 @@
         <v>36747</v>
       </c>
       <c r="B1684">
-        <v>0.001</v>
+        <v>0.9414583333333333</v>
       </c>
     </row>
     <row r="1685" spans="1:2">
@@ -13866,7 +13866,7 @@
         <v>36748</v>
       </c>
       <c r="B1685">
-        <v>0.001</v>
+        <v>0.9406250000000002</v>
       </c>
     </row>
     <row r="1686" spans="1:2">
@@ -13874,7 +13874,7 @@
         <v>36749</v>
       </c>
       <c r="B1686">
-        <v>0.001</v>
+        <v>0.9404166666666668</v>
       </c>
     </row>
     <row r="1687" spans="1:2">
@@ -13882,7 +13882,7 @@
         <v>36750</v>
       </c>
       <c r="B1687">
-        <v>0.001</v>
+        <v>0.9400000000000001</v>
       </c>
     </row>
     <row r="1688" spans="1:2">
@@ -13890,7 +13890,7 @@
         <v>36751</v>
       </c>
       <c r="B1688">
-        <v>0.001</v>
+        <v>0.9397083333333335</v>
       </c>
     </row>
     <row r="1689" spans="1:2">
@@ -13898,7 +13898,7 @@
         <v>36752</v>
       </c>
       <c r="B1689">
-        <v>0.001</v>
+        <v>0.943666666666667</v>
       </c>
     </row>
     <row r="1690" spans="1:2">
@@ -13906,7 +13906,7 @@
         <v>36753</v>
       </c>
       <c r="B1690">
-        <v>0.001</v>
+        <v>0.9415416666666667</v>
       </c>
     </row>
     <row r="1691" spans="1:2">
@@ -13914,7 +13914,7 @@
         <v>36754</v>
       </c>
       <c r="B1691">
-        <v>0.001</v>
+        <v>0.9417083333333333</v>
       </c>
     </row>
     <row r="1692" spans="1:2">
@@ -13922,7 +13922,7 @@
         <v>36755</v>
       </c>
       <c r="B1692">
-        <v>0.001</v>
+        <v>0.9419166666666667</v>
       </c>
     </row>
     <row r="1693" spans="1:2">
@@ -13930,7 +13930,7 @@
         <v>36756</v>
       </c>
       <c r="B1693">
-        <v>0.001</v>
+        <v>0.941875</v>
       </c>
     </row>
     <row r="1694" spans="1:2">
@@ -13938,7 +13938,7 @@
         <v>36757</v>
       </c>
       <c r="B1694">
-        <v>0.4246666666666667</v>
+        <v>0.5165416666666666</v>
       </c>
     </row>
     <row r="1695" spans="1:2">
@@ -13946,7 +13946,7 @@
         <v>36758</v>
       </c>
       <c r="B1695">
-        <v>0.4246666666666667</v>
+        <v>0.01266666666666667</v>
       </c>
     </row>
     <row r="1696" spans="1:2">
@@ -13954,7 +13954,7 @@
         <v>36759</v>
       </c>
       <c r="B1696">
-        <v>0.4246666666666667</v>
+        <v>0.009333333333333338</v>
       </c>
     </row>
     <row r="1697" spans="1:2">
@@ -13962,7 +13962,7 @@
         <v>36760</v>
       </c>
       <c r="B1697">
-        <v>0.4246666666666667</v>
+        <v>0.007416666666666671</v>
       </c>
     </row>
     <row r="1698" spans="1:2">
@@ -13970,7 +13970,7 @@
         <v>36761</v>
       </c>
       <c r="B1698">
-        <v>0.4246666666666667</v>
+        <v>0.006166666666666668</v>
       </c>
     </row>
     <row r="1699" spans="1:2">
@@ -13978,7 +13978,7 @@
         <v>36762</v>
       </c>
       <c r="B1699">
-        <v>0.4246666666666667</v>
+        <v>0.005041666666666668</v>
       </c>
     </row>
     <row r="1700" spans="1:2">
@@ -13986,7 +13986,7 @@
         <v>36763</v>
       </c>
       <c r="B1700">
-        <v>0.4246666666666667</v>
+        <v>0.004458333333333335</v>
       </c>
     </row>
     <row r="1701" spans="1:2">
@@ -13994,7 +13994,7 @@
         <v>36764</v>
       </c>
       <c r="B1701">
-        <v>0.4246666666666667</v>
+        <v>0.004000000000000003</v>
       </c>
     </row>
     <row r="1702" spans="1:2">
@@ -14002,7 +14002,7 @@
         <v>36765</v>
       </c>
       <c r="B1702">
-        <v>0.4246666666666667</v>
+        <v>0.003750000000000002</v>
       </c>
     </row>
     <row r="1703" spans="1:2">
@@ -14010,7 +14010,7 @@
         <v>36766</v>
       </c>
       <c r="B1703">
-        <v>0.4246666666666667</v>
+        <v>0.003000000000000001</v>
       </c>
     </row>
     <row r="1704" spans="1:2">
@@ -14018,7 +14018,7 @@
         <v>36767</v>
       </c>
       <c r="B1704">
-        <v>0.4246666666666667</v>
+        <v>0.003000000000000001</v>
       </c>
     </row>
     <row r="1705" spans="1:2">
@@ -14026,7 +14026,7 @@
         <v>36768</v>
       </c>
       <c r="B1705">
-        <v>0.4246666666666667</v>
+        <v>0.003000000000000001</v>
       </c>
     </row>
     <row r="1706" spans="1:2">
@@ -14034,7 +14034,7 @@
         <v>36769</v>
       </c>
       <c r="B1706">
-        <v>0.4246666666666667</v>
+        <v>0.002750000000000001</v>
       </c>
     </row>
     <row r="1707" spans="1:2">
@@ -14042,7 +14042,7 @@
         <v>36770</v>
       </c>
       <c r="B1707">
-        <v>0.4246666666666667</v>
+        <v>0.002041666666666668</v>
       </c>
     </row>
     <row r="1708" spans="1:2">
@@ -14050,7 +14050,7 @@
         <v>36771</v>
       </c>
       <c r="B1708">
-        <v>0.4246666666666667</v>
+        <v>0.002000000000000001</v>
       </c>
     </row>
     <row r="1709" spans="1:2">
@@ -14058,7 +14058,7 @@
         <v>36772</v>
       </c>
       <c r="B1709">
-        <v>0.4246666666666667</v>
+        <v>0.002000000000000001</v>
       </c>
     </row>
     <row r="1710" spans="1:2">
@@ -14066,7 +14066,7 @@
         <v>36773</v>
       </c>
       <c r="B1710">
-        <v>0.4246666666666667</v>
+        <v>0.002000000000000001</v>
       </c>
     </row>
     <row r="1711" spans="1:2">
@@ -14074,7 +14074,7 @@
         <v>36774</v>
       </c>
       <c r="B1711">
-        <v>0.4246666666666667</v>
+        <v>0.002000000000000001</v>
       </c>
     </row>
     <row r="1712" spans="1:2">
@@ -14082,7 +14082,7 @@
         <v>36775</v>
       </c>
       <c r="B1712">
-        <v>0.4246666666666667</v>
+        <v>0.002000000000000001</v>
       </c>
     </row>
     <row r="1713" spans="1:2">
@@ -14090,7 +14090,7 @@
         <v>36776</v>
       </c>
       <c r="B1713">
-        <v>0.4246666666666667</v>
+        <v>0.002000000000000001</v>
       </c>
     </row>
     <row r="1714" spans="1:2">
@@ -14098,7 +14098,7 @@
         <v>36777</v>
       </c>
       <c r="B1714">
-        <v>0.4246666666666667</v>
+        <v>0.002000000000000001</v>
       </c>
     </row>
     <row r="1715" spans="1:2">
@@ -14106,7 +14106,7 @@
         <v>36778</v>
       </c>
       <c r="B1715">
-        <v>0.4246666666666667</v>
+        <v>0.002000000000000001</v>
       </c>
     </row>
     <row r="1716" spans="1:2">
@@ -14114,7 +14114,7 @@
         <v>36779</v>
       </c>
       <c r="B1716">
-        <v>0.4246666666666667</v>
+        <v>0.002000000000000001</v>
       </c>
     </row>
     <row r="1717" spans="1:2">
@@ -14122,7 +14122,7 @@
         <v>36780</v>
       </c>
       <c r="B1717">
-        <v>0.4246666666666667</v>
+        <v>0.002000000000000001</v>
       </c>
     </row>
     <row r="1718" spans="1:2">
@@ -14130,7 +14130,7 @@
         <v>36781</v>
       </c>
       <c r="B1718">
-        <v>0.4246666666666667</v>
+        <v>0.001916666666666668</v>
       </c>
     </row>
     <row r="1719" spans="1:2">
@@ -14138,7 +14138,7 @@
         <v>36782</v>
       </c>
       <c r="B1719">
-        <v>0.4246666666666667</v>
+        <v>0.001333333333333334</v>
       </c>
     </row>
     <row r="1720" spans="1:2">
@@ -14146,7 +14146,7 @@
         <v>36783</v>
       </c>
       <c r="B1720">
-        <v>0.4246666666666667</v>
+        <v>0.001041666666666667</v>
       </c>
     </row>
     <row r="1721" spans="1:2">
@@ -14154,7 +14154,7 @@
         <v>36784</v>
       </c>
       <c r="B1721">
-        <v>0.4246666666666667</v>
+        <v>0.001000000000000001</v>
       </c>
     </row>
     <row r="1722" spans="1:2">
@@ -14162,7 +14162,7 @@
         <v>36785</v>
       </c>
       <c r="B1722">
-        <v>0.4246666666666667</v>
+        <v>0.001000000000000001</v>
       </c>
     </row>
     <row r="1723" spans="1:2">
@@ -14170,7 +14170,7 @@
         <v>36786</v>
       </c>
       <c r="B1723">
-        <v>0.4246666666666667</v>
+        <v>0.001000000000000001</v>
       </c>
     </row>
     <row r="1724" spans="1:2">
@@ -14178,7 +14178,7 @@
         <v>36787</v>
       </c>
       <c r="B1724">
-        <v>0.4246666666666667</v>
+        <v>0.001000000000000001</v>
       </c>
     </row>
     <row r="1725" spans="1:2">
@@ -14186,7 +14186,7 @@
         <v>36788</v>
       </c>
       <c r="B1725">
-        <v>0.4246666666666667</v>
+        <v>0.001000000000000001</v>
       </c>
     </row>
     <row r="1726" spans="1:2">
@@ -14194,7 +14194,7 @@
         <v>36789</v>
       </c>
       <c r="B1726">
-        <v>0.4246666666666667</v>
+        <v>0.001000000000000001</v>
       </c>
     </row>
     <row r="1727" spans="1:2">
@@ -14202,7 +14202,7 @@
         <v>36790</v>
       </c>
       <c r="B1727">
-        <v>0.4246666666666667</v>
+        <v>0.001000000000000001</v>
       </c>
     </row>
     <row r="1728" spans="1:2">
@@ -14210,7 +14210,7 @@
         <v>36791</v>
       </c>
       <c r="B1728">
-        <v>0.4246666666666667</v>
+        <v>0.001000000000000001</v>
       </c>
     </row>
     <row r="1729" spans="1:2">
@@ -14218,7 +14218,7 @@
         <v>36792</v>
       </c>
       <c r="B1729">
-        <v>0.4246666666666667</v>
+        <v>0.001000000000000001</v>
       </c>
     </row>
     <row r="1730" spans="1:2">
@@ -14226,7 +14226,7 @@
         <v>36793</v>
       </c>
       <c r="B1730">
-        <v>0.4246666666666667</v>
+        <v>0.001000000000000001</v>
       </c>
     </row>
     <row r="1731" spans="1:2">
@@ -14234,7 +14234,7 @@
         <v>36794</v>
       </c>
       <c r="B1731">
-        <v>0.4246666666666667</v>
+        <v>0.001000000000000001</v>
       </c>
     </row>
     <row r="1732" spans="1:2">
@@ -14242,7 +14242,7 @@
         <v>36795</v>
       </c>
       <c r="B1732">
-        <v>0.4246666666666667</v>
+        <v>0.001000000000000001</v>
       </c>
     </row>
     <row r="1733" spans="1:2">
@@ -14250,7 +14250,7 @@
         <v>36796</v>
       </c>
       <c r="B1733">
-        <v>0.4246666666666667</v>
+        <v>0.001000000000000001</v>
       </c>
     </row>
     <row r="1734" spans="1:2">
@@ -14258,7 +14258,7 @@
         <v>36797</v>
       </c>
       <c r="B1734">
-        <v>0.4246666666666667</v>
+        <v>0.001000000000000001</v>
       </c>
     </row>
     <row r="1735" spans="1:2">
@@ -14266,7 +14266,7 @@
         <v>36798</v>
       </c>
       <c r="B1735">
-        <v>0.4246666666666667</v>
+        <v>0.001000000000000001</v>
       </c>
     </row>
     <row r="1736" spans="1:2">
@@ -14274,7 +14274,7 @@
         <v>36799</v>
       </c>
       <c r="B1736">
-        <v>0.4246666666666667</v>
+        <v>0.001000000000000001</v>
       </c>
     </row>
     <row r="1737" spans="1:2">
@@ -14282,7 +14282,7 @@
         <v>36800</v>
       </c>
       <c r="B1737">
-        <v>0.4246666666666667</v>
+        <v>0.001000000000000001</v>
       </c>
     </row>
     <row r="1738" spans="1:2">
@@ -14290,7 +14290,7 @@
         <v>36801</v>
       </c>
       <c r="B1738">
-        <v>0.4246666666666667</v>
+        <v>0.001000000000000001</v>
       </c>
     </row>
     <row r="1739" spans="1:2">
@@ -14298,7 +14298,7 @@
         <v>36802</v>
       </c>
       <c r="B1739">
-        <v>0.4246666666666667</v>
+        <v>0.001000000000000001</v>
       </c>
     </row>
     <row r="1740" spans="1:2">
@@ -14306,7 +14306,7 @@
         <v>36803</v>
       </c>
       <c r="B1740">
-        <v>0.4246666666666667</v>
+        <v>0.001000000000000001</v>
       </c>
     </row>
     <row r="1741" spans="1:2">
@@ -14314,7 +14314,7 @@
         <v>36804</v>
       </c>
       <c r="B1741">
-        <v>0.4246666666666667</v>
+        <v>0.001000000000000001</v>
       </c>
     </row>
     <row r="1742" spans="1:2">
@@ -14322,7 +14322,7 @@
         <v>36805</v>
       </c>
       <c r="B1742">
-        <v>0.4246666666666667</v>
+        <v>0.001000000000000001</v>
       </c>
     </row>
     <row r="1743" spans="1:2">
@@ -14330,7 +14330,7 @@
         <v>36806</v>
       </c>
       <c r="B1743">
-        <v>0.4246666666666667</v>
+        <v>0.001000000000000001</v>
       </c>
     </row>
     <row r="1744" spans="1:2">
@@ -14338,7 +14338,7 @@
         <v>36807</v>
       </c>
       <c r="B1744">
-        <v>0.4246666666666667</v>
+        <v>0.001000000000000001</v>
       </c>
     </row>
     <row r="1745" spans="1:2">
@@ -14346,7 +14346,7 @@
         <v>36808</v>
       </c>
       <c r="B1745">
-        <v>0.4246666666666667</v>
+        <v>0.001000000000000001</v>
       </c>
     </row>
     <row r="1746" spans="1:2">
@@ -14354,7 +14354,7 @@
         <v>36809</v>
       </c>
       <c r="B1746">
-        <v>0.4246666666666667</v>
+        <v>0.001000000000000001</v>
       </c>
     </row>
     <row r="1747" spans="1:2">
@@ -14362,7 +14362,7 @@
         <v>36810</v>
       </c>
       <c r="B1747">
-        <v>0.4246666666666667</v>
+        <v>0.001000000000000001</v>
       </c>
     </row>
     <row r="1748" spans="1:2">
@@ -14370,7 +14370,7 @@
         <v>36811</v>
       </c>
       <c r="B1748">
-        <v>0.4246666666666667</v>
+        <v>0.001000000000000001</v>
       </c>
     </row>
     <row r="1749" spans="1:2">
@@ -14378,7 +14378,7 @@
         <v>36812</v>
       </c>
       <c r="B1749">
-        <v>0.4246666666666667</v>
+        <v>0.001000000000000001</v>
       </c>
     </row>
     <row r="1750" spans="1:2">
@@ -14386,7 +14386,7 @@
         <v>36813</v>
       </c>
       <c r="B1750">
-        <v>0.4246666666666667</v>
+        <v>0.001000000000000001</v>
       </c>
     </row>
     <row r="1751" spans="1:2">
@@ -14394,7 +14394,7 @@
         <v>36814</v>
       </c>
       <c r="B1751">
-        <v>0.4246666666666667</v>
+        <v>0.001000000000000001</v>
       </c>
     </row>
     <row r="1752" spans="1:2">
@@ -14402,7 +14402,7 @@
         <v>36815</v>
       </c>
       <c r="B1752">
-        <v>0.4246666666666667</v>
+        <v>0.001000000000000001</v>
       </c>
     </row>
     <row r="1753" spans="1:2">
@@ -14410,7 +14410,7 @@
         <v>36816</v>
       </c>
       <c r="B1753">
-        <v>0.4246666666666667</v>
+        <v>0.001000000000000001</v>
       </c>
     </row>
     <row r="1754" spans="1:2">
@@ -14418,7 +14418,7 @@
         <v>36817</v>
       </c>
       <c r="B1754">
-        <v>0.4246666666666667</v>
+        <v>0.001000000000000001</v>
       </c>
     </row>
     <row r="1755" spans="1:2">
@@ -14426,7 +14426,7 @@
         <v>36818</v>
       </c>
       <c r="B1755">
-        <v>0.4246666666666667</v>
+        <v>0.001000000000000001</v>
       </c>
     </row>
     <row r="1756" spans="1:2">
@@ -14434,7 +14434,7 @@
         <v>36819</v>
       </c>
       <c r="B1756">
-        <v>0.4246666666666667</v>
+        <v>0.001000000000000001</v>
       </c>
     </row>
     <row r="1757" spans="1:2">
@@ -14442,7 +14442,7 @@
         <v>36820</v>
       </c>
       <c r="B1757">
-        <v>0.001</v>
+        <v>0.001000000000000001</v>
       </c>
     </row>
     <row r="1758" spans="1:2">
@@ -14498,7 +14498,7 @@
         <v>36827</v>
       </c>
       <c r="B1764">
-        <v>0.001</v>
+        <v>0.001000000000000001</v>
       </c>
     </row>
     <row r="1765" spans="1:2">
@@ -19402,7 +19402,7 @@
         <v>37440</v>
       </c>
       <c r="B2377">
-        <v>0.001</v>
+        <v>0.001000000000000001</v>
       </c>
     </row>
     <row r="2378" spans="1:2">
@@ -19410,7 +19410,7 @@
         <v>37441</v>
       </c>
       <c r="B2378">
-        <v>0.001</v>
+        <v>0.001000000000000001</v>
       </c>
     </row>
     <row r="2379" spans="1:2">
@@ -23154,7 +23154,7 @@
         <v>37909</v>
       </c>
       <c r="B2846">
-        <v>0.00980952380952381</v>
+        <v>0.0115</v>
       </c>
     </row>
     <row r="2847" spans="1:2">
@@ -23162,7 +23162,7 @@
         <v>37910</v>
       </c>
       <c r="B2847">
-        <v>0.3508095238095238</v>
+        <v>0.3169166666666666</v>
       </c>
     </row>
     <row r="2848" spans="1:2">
@@ -33362,7 +33362,7 @@
         <v>39185</v>
       </c>
       <c r="B4122">
-        <v>0.005333333333333335</v>
+        <v>0.005291666666666668</v>
       </c>
     </row>
     <row r="4123" spans="1:2">
